--- a/Dachukunnavi_V1.xlsx
+++ b/Dachukunnavi_V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IT\IT\Database Administration\Process Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\autofas1\users\sai.datla\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56F724FA-C109-4208-BBCA-5060337BFC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B073044A-A8CB-443A-B0E2-282E00E4085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUDHA" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'FAMILY SAVINGS'!$B$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,6 +38,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -67,305 +70,656 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="364">
+  <si>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Date Sent</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Marriage</t>
+  </si>
+  <si>
+    <t>Sudha Home GIFT (SBI)</t>
+  </si>
+  <si>
+    <t>1st Salary Gift</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Sudha Home (SBI)</t>
+  </si>
+  <si>
+    <t>Day2Day Expenses</t>
+  </si>
+  <si>
+    <t>Chitti</t>
+  </si>
+  <si>
+    <t>Dusyahth HDFC</t>
+  </si>
+  <si>
+    <t>Father LIC MNGR</t>
+  </si>
+  <si>
+    <t>UK Loan</t>
+  </si>
+  <si>
+    <t>Mamiya HDFC</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>UK Loan Paid Back</t>
+  </si>
+  <si>
+    <t>Sudha Helped in KKD</t>
+  </si>
+  <si>
+    <t>Ramesh (KKD)</t>
+  </si>
+  <si>
+    <t>Corona Testing</t>
+  </si>
+  <si>
+    <t>Sudha Helped from UK</t>
+  </si>
+  <si>
+    <t>Gold Loan</t>
+  </si>
+  <si>
+    <t>Sudha Gold Load Paid</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Total returns to Sudha</t>
+  </si>
+  <si>
+    <t>Mamiya (Anjani Granites)</t>
+  </si>
+  <si>
+    <t>21-22-23/11/23</t>
+  </si>
+  <si>
+    <t>Granites work</t>
+  </si>
+  <si>
+    <t>Sudha Gold Money (to make100GMs)</t>
+  </si>
+  <si>
+    <t>Gold Money</t>
+  </si>
+  <si>
+    <t>Mamiya Given Back (for kkd plot 2)</t>
+  </si>
+  <si>
+    <t>Given back for Plot</t>
+  </si>
+  <si>
+    <t>Total to Sudha Home</t>
+  </si>
+  <si>
+    <t>Mamiya (Granites Partnership)</t>
+  </si>
+  <si>
+    <t>IDI 12 MONTHS TARUVATHA IVVANANDUKU</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>YEVARIKI</t>
+  </si>
+  <si>
+    <t>MAMMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHITTILU START </t>
+  </si>
+  <si>
+    <t>AUNTY (KKD)</t>
+  </si>
+  <si>
+    <t>ICHINA ROJU</t>
+  </si>
+  <si>
+    <t>NELA KI SEND BEFORE 7th</t>
+  </si>
+  <si>
+    <t>ICHINA ROJU (ESTIMATED)</t>
+  </si>
+  <si>
+    <t>ASALU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1lk Mammu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE </t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>S.NO</t>
+  </si>
+  <si>
+    <t>VADDI</t>
+  </si>
+  <si>
+    <t>NELA KI ENTHA</t>
+  </si>
+  <si>
+    <t>RETURN DATE ESTIMATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTHS </t>
+  </si>
+  <si>
+    <t>MONTHS</t>
+  </si>
+  <si>
+    <t>RETURN DABBULU</t>
+  </si>
+  <si>
+    <t>(Idi 55Nenu pampanu and 25 Bajji icharu)</t>
+  </si>
+  <si>
+    <t>INTEREST PAID (1st week aug 2019)</t>
+  </si>
+  <si>
+    <t>PAID TO CAR (116)</t>
+  </si>
+  <si>
+    <t>(Idi Mohan garu account ninchi india lo transfer chesaru)</t>
+  </si>
+  <si>
+    <t>ICHINAVI 100000</t>
+  </si>
+  <si>
+    <t>Interest PAID (Mid Sept 2020)</t>
+  </si>
+  <si>
+    <t>GIVEN TO BAZZI</t>
+  </si>
+  <si>
+    <t>INKA RAVALSINAVI</t>
+  </si>
+  <si>
+    <t>08/11/2018 (After Work)</t>
+  </si>
+  <si>
+    <t>(ICICI ninchi transfer chesa)</t>
+  </si>
+  <si>
+    <t>Given to mammu (Transfer to Viswa avenue  17th mar 2023)</t>
+  </si>
+  <si>
+    <t>From Transfer wise (Sent 1Lakh = 80 to chitti + 20 Mammu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From TransferWise </t>
+  </si>
+  <si>
+    <t>Bajji Kattaru (Nenu Tickets Book Chesukunna)</t>
+  </si>
+  <si>
+    <t>Bazzi ni aa 2Lakhs lo kattamannanu - becz rate baga padipoindi.</t>
+  </si>
+  <si>
+    <t>90000 Nenu kattanu, Bazzi deggara levu anta (Nake 40000 Ravali)</t>
+  </si>
+  <si>
+    <t>AUGUST LO TRIP KARCHU</t>
+  </si>
+  <si>
+    <t>Pattuku Vellalsinivi</t>
+  </si>
+  <si>
+    <t>Yentha Aiyai</t>
+  </si>
+  <si>
+    <t>90000 From TransferWise</t>
+  </si>
+  <si>
+    <t>BAZZI</t>
+  </si>
+  <si>
+    <t>SCOPE + ACCESSORIES</t>
+  </si>
+  <si>
+    <t>BAJJI Kattaru (Nenu Visa karchulaki Vadukunnanu)</t>
+  </si>
+  <si>
+    <t>DRINKS</t>
+  </si>
+  <si>
+    <t>CHAPPALU + OTHERS</t>
+  </si>
+  <si>
+    <t>AMMA</t>
+  </si>
+  <si>
+    <t>CHINNA MIXER</t>
+  </si>
+  <si>
+    <t>WATCH</t>
+  </si>
+  <si>
+    <t>DUSYANTH</t>
+  </si>
+  <si>
+    <t>SHOES + 1/2 TSHIRTS</t>
+  </si>
+  <si>
+    <t>CHITTILU START (SUDHA - HALF CHITTI WITH BAJJI)</t>
+  </si>
+  <si>
+    <t>JUHIT</t>
+  </si>
+  <si>
+    <t>T+SHORTS+SHOES</t>
+  </si>
+  <si>
+    <t>TEJA</t>
+  </si>
+  <si>
+    <t>PURSE</t>
+  </si>
+  <si>
+    <t>PAID (1st week aug 2019)</t>
+  </si>
+  <si>
+    <t>MADAM 1 + MAMA 1 ICHARU</t>
+  </si>
+  <si>
+    <t>UMESH</t>
+  </si>
+  <si>
+    <t>PAID (2nd week Dec 2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Ivi bajji kattaru (Na 2Lakhs lo migilina money)</t>
+  </si>
+  <si>
+    <t>KAMMANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEPPULU </t>
+  </si>
+  <si>
+    <t>TOTAL RETURNS (TO ME)</t>
+  </si>
+  <si>
+    <t>Anything over 5L to Mamiya</t>
+  </si>
+  <si>
+    <t>Ivi nenu next nela ki kuda kalipi kattanu (Pound rate on top)</t>
+  </si>
+  <si>
+    <t>MAMA</t>
+  </si>
+  <si>
+    <t>CHAPPALS (2) + SHADES</t>
+  </si>
+  <si>
+    <t>(From Prev Month)</t>
+  </si>
+  <si>
+    <t>ATHA</t>
+  </si>
+  <si>
+    <t>PALLAVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURSE + CHAPPALS </t>
+  </si>
+  <si>
+    <t>Mamiya Returned 11L to me FROM ABOVE</t>
+  </si>
+  <si>
+    <t>(To MY ICICI Bank Acc)</t>
+  </si>
+  <si>
+    <t>CHAITANYA</t>
+  </si>
+  <si>
+    <t>T-SHIRTS</t>
+  </si>
+  <si>
+    <t>(To RAM Gopal Bank Acc)</t>
+  </si>
+  <si>
+    <t>RANNU</t>
+  </si>
+  <si>
+    <t>DRESSES + OTHERS</t>
+  </si>
+  <si>
+    <t>JASSU</t>
+  </si>
+  <si>
+    <t>DRESSES</t>
+  </si>
+  <si>
+    <t>RAMESH</t>
+  </si>
+  <si>
+    <t>SHADES</t>
+  </si>
+  <si>
+    <t>SIRISHA</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>ASHWINI N FAMILY</t>
+  </si>
+  <si>
+    <t>DREESS + CHOCS</t>
+  </si>
+  <si>
+    <t>KIRAN AND FAMILY</t>
+  </si>
+  <si>
+    <t>MANUGURU LO MADAM KI</t>
+  </si>
+  <si>
+    <t>BUJJI AND FAMILY</t>
+  </si>
+  <si>
+    <t>PURSE + CHOCS</t>
+  </si>
+  <si>
+    <t>PRADEEP AND FAMILY</t>
+  </si>
+  <si>
+    <t>PURSE(2) + DRESS</t>
+  </si>
+  <si>
+    <t>LAKKAVARAM</t>
+  </si>
+  <si>
+    <t>PURSE + SCENT</t>
+  </si>
+  <si>
+    <t>BIJILI</t>
+  </si>
+  <si>
+    <t>TOPS + SHORTS</t>
+  </si>
+  <si>
+    <t>NISHI</t>
+  </si>
+  <si>
+    <t>RETURNED</t>
+  </si>
+  <si>
+    <t>APPARTMENT LO</t>
+  </si>
+  <si>
+    <t>CHOCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATHA ATTATIYA </t>
+  </si>
+  <si>
+    <t>ANNITIKOSAM PETROL</t>
+  </si>
+  <si>
+    <t>IVI KAKUNDA</t>
+  </si>
+  <si>
+    <t>TICKETS</t>
+  </si>
+  <si>
+    <t>TRAVEL</t>
+  </si>
+  <si>
+    <t>(STOKE TO MAN AND RETURN)</t>
+  </si>
+  <si>
+    <t>TOTAL MANDATORY KARCHU</t>
+  </si>
+  <si>
+    <t>MAMA KI 1 IVVALI</t>
+  </si>
+  <si>
+    <t>IVI NAKU 2 YEARS LO RAVALSINIVI</t>
+  </si>
+  <si>
+    <t>VADDI MIDA VADDI</t>
+  </si>
+  <si>
+    <t>CHITTILU START (Self - New)</t>
+  </si>
+  <si>
+    <t>CHITTILU START (SUDHA)</t>
+  </si>
+  <si>
+    <t>GOLD LOAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuing Bajji Chitti </t>
+  </si>
   <si>
     <t>BANK</t>
   </si>
   <si>
-    <t>ASALU</t>
-  </si>
-  <si>
-    <t>VADDI</t>
-  </si>
-  <si>
-    <t>NELA KI ENTHA</t>
-  </si>
-  <si>
-    <t>ICHINA ROJU</t>
-  </si>
-  <si>
-    <t>YEVARIKI</t>
-  </si>
-  <si>
-    <t>MAMMU</t>
-  </si>
-  <si>
-    <t>RETURN DABBULU</t>
-  </si>
-  <si>
-    <t>RETURN DATE ESTIMATED</t>
-  </si>
-  <si>
-    <t>ICHINA ROJU (ESTIMATED)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTHS </t>
-  </si>
-  <si>
-    <t>MONTHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE </t>
-  </si>
-  <si>
-    <t>S.NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHITTILU START </t>
-  </si>
-  <si>
-    <t>AUNTY (KKD)</t>
-  </si>
-  <si>
-    <t>(Idi 55Nenu pampanu and 25 Bajji icharu)</t>
-  </si>
-  <si>
-    <t>(Idi Mohan garu account ninchi india lo transfer chesaru)</t>
-  </si>
-  <si>
-    <t>08/11/2018 (After Work)</t>
-  </si>
-  <si>
-    <t>(ICICI ninchi transfer chesa)</t>
-  </si>
-  <si>
-    <t>NELA KI SEND BEFORE 7th</t>
-  </si>
-  <si>
-    <t>From Transfer wise (Sent 1Lakh = 80 to chitti + 20 Mammu)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From TransferWise </t>
-  </si>
-  <si>
-    <t>IDI 12 MONTHS TARUVATHA IVVANANDUKU</t>
-  </si>
-  <si>
-    <t>ICHINAVI 100000</t>
-  </si>
-  <si>
-    <t>MANUGURU LO MADAM KI</t>
-  </si>
-  <si>
-    <t>Bajji Kattaru (Nenu Tickets Book Chesukunna)</t>
-  </si>
-  <si>
-    <t>RETURNED</t>
-  </si>
-  <si>
-    <t>Bazzi ni aa 2Lakhs lo kattamannanu - becz rate baga padipoindi.</t>
-  </si>
-  <si>
-    <t>Pattuku Vellalsinivi</t>
-  </si>
-  <si>
-    <t>Yentha Aiyai</t>
-  </si>
-  <si>
-    <t>BAZZI</t>
-  </si>
-  <si>
-    <t>AMMA</t>
-  </si>
-  <si>
-    <t>DUSYANTH</t>
-  </si>
-  <si>
-    <t>JUHIT</t>
-  </si>
-  <si>
-    <t>MAMA</t>
-  </si>
-  <si>
-    <t>ATHA</t>
-  </si>
-  <si>
-    <t>PALLAVI</t>
-  </si>
-  <si>
-    <t>CHAITANYA</t>
-  </si>
-  <si>
-    <t>RANNU</t>
-  </si>
-  <si>
-    <t>JASSU</t>
-  </si>
-  <si>
-    <t>RAMESH</t>
-  </si>
-  <si>
-    <t>SIRISHA</t>
-  </si>
-  <si>
-    <t>SCOPE + ACCESSORIES</t>
-  </si>
-  <si>
-    <t>DRINKS</t>
-  </si>
-  <si>
-    <t>CHINNA MIXER</t>
-  </si>
-  <si>
-    <t>AUGUST LO TRIP KARCHU</t>
-  </si>
-  <si>
-    <t>WATCH</t>
-  </si>
-  <si>
-    <t>T+SHORTS+SHOES</t>
-  </si>
-  <si>
-    <t>TEJA</t>
-  </si>
-  <si>
-    <t>UMESH</t>
-  </si>
-  <si>
-    <t>KAMMANIA</t>
-  </si>
-  <si>
-    <t>CHAPPALS (2) + SHADES</t>
-  </si>
-  <si>
-    <t>SHADES</t>
-  </si>
-  <si>
-    <t>PURSE</t>
-  </si>
-  <si>
-    <t>DRESSES</t>
-  </si>
-  <si>
-    <t>T-SHIRTS</t>
-  </si>
-  <si>
-    <t>SHOES + 1/2 TSHIRTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PURSE + CHAPPALS </t>
-  </si>
-  <si>
-    <t>ASHWINI N FAMILY</t>
-  </si>
-  <si>
-    <t>DREESS + CHOCS</t>
-  </si>
-  <si>
-    <t>KIRAN AND FAMILY</t>
-  </si>
-  <si>
-    <t>BUJJI AND FAMILY</t>
-  </si>
-  <si>
-    <t>PURSE + CHOCS</t>
-  </si>
-  <si>
-    <t>PRADEEP AND FAMILY</t>
-  </si>
-  <si>
-    <t>PURSE(2) + DRESS</t>
-  </si>
-  <si>
-    <t>DRESSES + OTHERS</t>
-  </si>
-  <si>
-    <t>LAKKAVARAM</t>
-  </si>
-  <si>
-    <t>PURSE + SCENT</t>
-  </si>
-  <si>
-    <t>NISHI</t>
-  </si>
-  <si>
-    <t>IVI KAKUNDA</t>
-  </si>
-  <si>
-    <t>TICKETS</t>
-  </si>
-  <si>
-    <t>TRAVEL</t>
-  </si>
-  <si>
-    <t>(STOKE TO MAN AND RETURN)</t>
-  </si>
-  <si>
-    <t>TOTAL MANDATORY KARCHU</t>
-  </si>
-  <si>
-    <t>BIJILI</t>
-  </si>
-  <si>
-    <t>TOPS + SHORTS</t>
-  </si>
-  <si>
-    <t>INKA RAVALSINAVI</t>
-  </si>
-  <si>
-    <t>INTEREST PAID (1st week aug 2019)</t>
-  </si>
-  <si>
-    <t>CHAPPALU + OTHERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEPPULU </t>
-  </si>
-  <si>
-    <t>APPARTMENT LO</t>
-  </si>
-  <si>
-    <t>CHOCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LATHA ATTATIYA </t>
-  </si>
-  <si>
-    <t>ANNITIKOSAM PETROL</t>
-  </si>
-  <si>
-    <t>MADAM 1 + MAMA 1 ICHARU</t>
-  </si>
-  <si>
-    <t>TOTAL RETURNS (TO ME)</t>
-  </si>
-  <si>
-    <t>MAMA KI 1 IVVALI</t>
-  </si>
-  <si>
-    <t>90000 Nenu kattanu, Bazzi deggara levu anta (Nake 40000 Ravali)</t>
-  </si>
-  <si>
-    <t>IVI NAKU 2 YEARS LO RAVALSINIVI</t>
-  </si>
-  <si>
-    <t>VADDI MIDA VADDI</t>
-  </si>
-  <si>
-    <t>90000 From TransferWise</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>CHITTILU START (SUDHA - HALF CHITTI WITH BAJJI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-  <si>
-    <t>Ivi nenu next nela ki kuda kalipi kattanu (Pound rate on top)</t>
+    <t xml:space="preserve">REPAID LOAN </t>
+  </si>
+  <si>
+    <t>Sent from My Transferwise Account</t>
+  </si>
+  <si>
+    <t>GIVEN FOR INTEREST</t>
+  </si>
+  <si>
+    <t>INTEREST RATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start date </t>
+  </si>
+  <si>
+    <t>Sent from Seshi ICICI Account (INDIA)</t>
+  </si>
+  <si>
+    <t>Total Months as on today</t>
+  </si>
+  <si>
+    <t>Total Interest on 6Lks</t>
+  </si>
+  <si>
+    <t>Interest to bank on 10Lks</t>
+  </si>
+  <si>
+    <t>Sent from Sudha ICICI Account (INDIA)</t>
+  </si>
+  <si>
+    <t>60000 (Tr to Dush from ICICI) + 100000 (Mamiys to Dush Cash)</t>
+  </si>
+  <si>
+    <t>Sent from ICICI Bank Account</t>
+  </si>
+  <si>
+    <t>TOTAL PAYABLE TO ME.</t>
+  </si>
+  <si>
+    <t>Sent 251000 by Krishi Datla</t>
+  </si>
+  <si>
+    <t>Sent 69000 from ICICI Bank acocunt</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Sent to Mammu by Venki and Mmmu to Chitti</t>
+  </si>
+  <si>
+    <t>130000 sent from wise and 70000 Bava paid from previous</t>
+  </si>
+  <si>
+    <t>Satish paid 50K+1L on 07/10 and 50K on 10/10</t>
+  </si>
+  <si>
+    <t>New Kshatriya Chitti 1 (Paid by dad from Rents)</t>
+  </si>
+  <si>
+    <t>New Kshatriya Chitti 2 (Paid by dad from Rents)</t>
+  </si>
+  <si>
+    <t>New Kshatriya Chitti 3</t>
+  </si>
+  <si>
+    <t>Done First one</t>
+  </si>
+  <si>
+    <t>Given by MOM from HM</t>
+  </si>
+  <si>
+    <t>1.4 Sent from My Transferwise Account + 0.3 Mom</t>
+  </si>
+  <si>
+    <t>Not Paid</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>MIYAPUR FLAT</t>
+  </si>
+  <si>
+    <t>IN GBP</t>
+  </si>
+  <si>
+    <t>Total cost of Flat</t>
+  </si>
+  <si>
+    <t>Icici Bank</t>
+  </si>
+  <si>
+    <t>Ramgopal</t>
+  </si>
+  <si>
+    <t>(Transferred by Harika Reddy India)</t>
+  </si>
+  <si>
+    <t>Viswa Avenues (Kasi Garu)</t>
+  </si>
+  <si>
+    <t>DusyanthRaju</t>
+  </si>
+  <si>
+    <t>Sravanthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pothuraju </t>
+  </si>
+  <si>
+    <t>Kasi garu (Axis Bank)</t>
+  </si>
+  <si>
+    <t>Kasi garu (UCO Bank)</t>
+  </si>
+  <si>
+    <t>(Transferred by Ram + Akbar)</t>
+  </si>
+  <si>
+    <t>(Transferred by Ram)</t>
+  </si>
+  <si>
+    <t>(From my icici bank account)</t>
+  </si>
+  <si>
+    <t>Bajji (Cash)</t>
+  </si>
+  <si>
+    <t>(Cash)</t>
+  </si>
+  <si>
+    <t>Total Sent to Kasi Garu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending Amount </t>
+  </si>
+  <si>
+    <t>(Should be given by Bajji)</t>
+  </si>
+  <si>
+    <t>Chitti 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madam </t>
+  </si>
+  <si>
+    <t>Mammu Atta</t>
+  </si>
+  <si>
+    <t>Bajji Deggara</t>
+  </si>
+  <si>
+    <t>Mammu Atta Interest</t>
+  </si>
+  <si>
+    <t>Chitti 1 Mida interest</t>
+  </si>
+  <si>
+    <t>Bajji paying another chitti (Per Month)</t>
+  </si>
+  <si>
+    <t>Started from May 2020</t>
+  </si>
+  <si>
+    <t>Total Months as on Jan 2021</t>
+  </si>
+  <si>
+    <t>Gold loan Interest</t>
   </si>
   <si>
     <t>REASON</t>
   </si>
   <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Transferred</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
     <t xml:space="preserve">WARANGAL POLANIKI </t>
   </si>
   <si>
+    <t>Bajji SBI</t>
+  </si>
+  <si>
     <t>MAMMU BTECH (3Y + Some Expenses)</t>
   </si>
   <si>
+    <t>Teja IND Bk</t>
+  </si>
+  <si>
     <t>AMMIA KI (GOLD LOAN)</t>
   </si>
   <si>
@@ -384,337 +738,157 @@
     <t>EXPENSES</t>
   </si>
   <si>
-    <t>Ivi bajji kattaru (Na 2Lakhs lo migilina money)</t>
-  </si>
-  <si>
-    <t>BAJJI Kattaru (Nenu Visa karchulaki Vadukunnanu)</t>
-  </si>
-  <si>
-    <t>1st Salary Gift</t>
-  </si>
-  <si>
-    <t>Day2Day Expenses</t>
-  </si>
-  <si>
-    <t>Father LIC MNGR</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>Receiver</t>
-  </si>
-  <si>
-    <t>Sudha Home (SBI)</t>
-  </si>
-  <si>
-    <t>Sudha Home GIFT (SBI)</t>
-  </si>
-  <si>
-    <t>Dusyahth HDFC</t>
-  </si>
-  <si>
-    <t>Mamiya HDFC</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Date Sent</t>
-  </si>
-  <si>
-    <t>CHITTILU START (Self - New)</t>
-  </si>
-  <si>
-    <t>CHITTILU START (SUDHA)</t>
-  </si>
-  <si>
-    <t>Sent from My Transferwise Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continuing Bajji Chitti </t>
-  </si>
-  <si>
-    <t>Ramesh (KKD)</t>
-  </si>
-  <si>
-    <t>Corona Testing</t>
-  </si>
-  <si>
-    <t>Gold Loan</t>
-  </si>
-  <si>
-    <t>Sent from Seshi ICICI Account (INDIA)</t>
-  </si>
-  <si>
-    <t>Interest PAID (Mid Sept 2020)</t>
-  </si>
-  <si>
-    <t>COMPLETED</t>
-  </si>
-  <si>
-    <t>(From Prev Month)</t>
-  </si>
-  <si>
-    <t>GOLD LOAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPAID LOAN </t>
-  </si>
-  <si>
-    <t>GIVEN FOR INTEREST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start date </t>
-  </si>
-  <si>
-    <t>INTEREST RATE</t>
-  </si>
-  <si>
-    <t>Total Months as on today</t>
-  </si>
-  <si>
-    <t>TOTAL PAYABLE TO ME.</t>
-  </si>
-  <si>
-    <t>Total Interest on 6Lks</t>
-  </si>
-  <si>
-    <t>Interest to bank on 10Lks</t>
-  </si>
-  <si>
-    <t>Total to Sudha Home</t>
-  </si>
-  <si>
-    <t>GIVEN TO BAZZI</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>Chitti</t>
-  </si>
-  <si>
-    <t>Marriage</t>
-  </si>
-  <si>
-    <t>UK Loan</t>
-  </si>
-  <si>
-    <t>UK Loan Paid Back</t>
-  </si>
-  <si>
-    <t>Total returns to Sudha</t>
-  </si>
-  <si>
-    <t>Sudha Helped from UK</t>
-  </si>
-  <si>
-    <t>Sudha Helped in KKD</t>
-  </si>
-  <si>
-    <t>Chitti 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madam </t>
-  </si>
-  <si>
-    <t>Mammu Atta</t>
-  </si>
-  <si>
-    <t>Bajji Deggara</t>
-  </si>
-  <si>
-    <t>Chitti 1 Mida interest</t>
-  </si>
-  <si>
-    <t>Gold loan Interest</t>
-  </si>
-  <si>
-    <t>Sudha Gold Load Paid</t>
-  </si>
-  <si>
-    <t>PAID (1st week aug 2019)</t>
-  </si>
-  <si>
-    <t>PAID (2nd week Dec 2020)</t>
-  </si>
-  <si>
-    <t>Anything over 5L to Mamiya</t>
-  </si>
-  <si>
-    <t>Mammu Atta Interest</t>
-  </si>
-  <si>
-    <t>Bajji paying another chitti (Per Month)</t>
-  </si>
-  <si>
-    <t>Started from May 2020</t>
-  </si>
-  <si>
-    <t>Total Months as on Jan 2021</t>
-  </si>
-  <si>
-    <t>Sent from Sudha ICICI Account (INDIA)</t>
-  </si>
-  <si>
-    <t>60000 (Tr to Dush from ICICI) + 100000 (Mamiys to Dush Cash)</t>
-  </si>
-  <si>
-    <t>Sent from ICICI Bank Account</t>
-  </si>
-  <si>
-    <t>(To MY ICICI Bank Acc)</t>
-  </si>
-  <si>
-    <t>(To RAM Gopal Bank Acc)</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>Mamiya Returned 11L to me FROM ABOVE</t>
-  </si>
-  <si>
-    <t>PAID TO CAR (116)</t>
-  </si>
-  <si>
-    <t>Received</t>
-  </si>
-  <si>
-    <t>Transferred</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>Bajji SBI</t>
-  </si>
-  <si>
-    <t>Teja IND Bk</t>
-  </si>
-  <si>
-    <t>Sent 251000 by Krishi Datla</t>
-  </si>
-  <si>
-    <t>Sent 69000 from ICICI Bank acocunt</t>
+    <t>Month</t>
   </si>
   <si>
     <t>Received From</t>
   </si>
   <si>
-    <t>Month</t>
+    <t>Other Payments</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
+  </si>
+  <si>
+    <t>Total credited into account</t>
   </si>
   <si>
     <t>D Pulwaria</t>
   </si>
   <si>
+    <t>Account Taxation Ltd</t>
+  </si>
+  <si>
+    <t>Sent to employees:</t>
+  </si>
+  <si>
     <t>Mahinsha Navas</t>
   </si>
   <si>
+    <t>Taxes Employee</t>
+  </si>
+  <si>
     <t>Nikola Bila</t>
   </si>
   <si>
+    <t>Accountant:</t>
+  </si>
+  <si>
+    <t>Final One of payment in Feb</t>
+  </si>
+  <si>
     <t>Kaptain Secu</t>
   </si>
   <si>
+    <t>Total pending to Waqas before employer tax</t>
+  </si>
+  <si>
     <t>Securo Respo</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Employer Tax</t>
+  </si>
+  <si>
+    <t>If Employer have to pay tax to Govt then Waqas own ezytech money</t>
+  </si>
+  <si>
+    <t>If Employer don’t have to pay tax to Govt then Waqas gets money from Ezytech</t>
+  </si>
+  <si>
+    <t>Returned Money to kaptain Sec</t>
+  </si>
+  <si>
+    <t>NI Number</t>
+  </si>
+  <si>
+    <t>Working Hours</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>TotalPay</t>
+  </si>
+  <si>
+    <t>NI Tax Employer</t>
+  </si>
+  <si>
+    <t>NI Tax Employee</t>
+  </si>
+  <si>
+    <t>Income Tax</t>
+  </si>
+  <si>
+    <t>Net Pay</t>
+  </si>
+  <si>
+    <t>ME 2 PAY</t>
+  </si>
+  <si>
+    <t>SENT DATE</t>
+  </si>
+  <si>
+    <t>SENT AMOUNT</t>
   </si>
   <si>
     <t>Lalit Kumar Joya</t>
   </si>
   <si>
-    <t>NI Tax Employer</t>
-  </si>
-  <si>
-    <t>NI Tax Employee</t>
-  </si>
-  <si>
-    <t>Income Tax</t>
-  </si>
-  <si>
-    <t>Net Pay</t>
-  </si>
-  <si>
-    <t>TotalPay</t>
+    <t>SY 76 80 81 B</t>
   </si>
   <si>
     <t>Naveen Varma Mudunuri</t>
   </si>
   <si>
-    <t>NI Number</t>
-  </si>
-  <si>
     <t>SY741829B</t>
   </si>
   <si>
-    <t>Working Hours</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
     <t>Muhammad Waqas Butt</t>
   </si>
   <si>
     <t>SS 38 31 21 B</t>
   </si>
   <si>
-    <t>SY 76 80 81 B</t>
-  </si>
-  <si>
-    <t>ME 2 PAY</t>
-  </si>
-  <si>
-    <t>SENT DATE</t>
-  </si>
-  <si>
-    <t>SENT AMOUNT</t>
-  </si>
-  <si>
-    <t>Other Payments</t>
-  </si>
-  <si>
-    <t>Payment Date</t>
-  </si>
-  <si>
-    <t>Account Taxation Ltd</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
     <t>Total Paid to Employees without Employee tax:</t>
   </si>
   <si>
     <t>Tax to keep on Hold (Employer)</t>
   </si>
   <si>
-    <t>Returned Money to kaptain Sec</t>
-  </si>
-  <si>
     <t>Money in bank:</t>
   </si>
   <si>
     <t>ALL CLEARED FOR WAQAS AS ON ABOVE EXCEPT NI TAX EMPLOYER</t>
   </si>
   <si>
+    <t>For Myself</t>
+  </si>
+  <si>
     <t>Satyanarayana Raju Mudunuri</t>
   </si>
   <si>
     <t>SY 78 71 95 D</t>
   </si>
   <si>
-    <t>For Myself</t>
+    <t>Gowtham</t>
+  </si>
+  <si>
+    <t>SY 76 48 24 A</t>
+  </si>
+  <si>
+    <t>Total Employee Tax</t>
+  </si>
+  <si>
+    <t>Total Employer Tax</t>
+  </si>
+  <si>
+    <t>For Accountant till March 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
   </si>
   <si>
     <t>TOTAL RECEIVED</t>
@@ -729,153 +903,21 @@
     <t>TOTAL SENT TO LALIT</t>
   </si>
   <si>
-    <t>For Accountant till March 22</t>
-  </si>
-  <si>
-    <t>Total Employee Tax</t>
-  </si>
-  <si>
-    <t>Total Employer Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL </t>
-  </si>
-  <si>
-    <t>Total credited into account</t>
-  </si>
-  <si>
-    <t>Sent to employees:</t>
-  </si>
-  <si>
-    <t>Taxes Employee</t>
-  </si>
-  <si>
-    <t>Accountant:</t>
-  </si>
-  <si>
-    <t>Final One of payment in Feb</t>
-  </si>
-  <si>
-    <t>Total pending to Waqas before employer tax</t>
-  </si>
-  <si>
-    <t>Employer Tax</t>
-  </si>
-  <si>
-    <t>If Employer have to pay tax to Govt then Waqas own ezytech money</t>
-  </si>
-  <si>
-    <t>If Employer don’t have to pay tax to Govt then Waqas gets money from Ezytech</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>Sent to Mammu by Venki and Mmmu to Chitti</t>
-  </si>
-  <si>
-    <t>Gowtham</t>
-  </si>
-  <si>
-    <t>SY 76 48 24 A</t>
-  </si>
-  <si>
-    <t>130000 sent from wise and 70000 Bava paid from previous</t>
-  </si>
-  <si>
-    <t>Satish paid 50K+1L on 07/10 and 50K on 10/10</t>
-  </si>
-  <si>
-    <t>Total cost of Flat</t>
-  </si>
-  <si>
-    <t>Icici Bank</t>
-  </si>
-  <si>
-    <t>Ramgopal</t>
-  </si>
-  <si>
-    <t>Viswa Avenues (Kasi Garu)</t>
-  </si>
-  <si>
-    <t>DusyanthRaju</t>
-  </si>
-  <si>
-    <t>Sravanthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pothuraju </t>
-  </si>
-  <si>
-    <t>Kasi garu (Axis Bank)</t>
-  </si>
-  <si>
-    <t>Kasi garu (UCO Bank)</t>
-  </si>
-  <si>
-    <t>IN GBP</t>
-  </si>
-  <si>
-    <t>Total Sent to Kasi Garu</t>
-  </si>
-  <si>
-    <t>New Kshatriya Chitti 3</t>
-  </si>
-  <si>
-    <t>New Kshatriya Chitti 1 (Paid by dad from Rents)</t>
-  </si>
-  <si>
-    <t>New Kshatriya Chitti 2 (Paid by dad from Rents)</t>
-  </si>
-  <si>
-    <t>(Transferred by Harika Reddy India)</t>
-  </si>
-  <si>
-    <t>(Transferred by Ram + Akbar)</t>
-  </si>
-  <si>
-    <t>(Transferred by Ram)</t>
-  </si>
-  <si>
-    <t>(From my icici bank account)</t>
-  </si>
-  <si>
-    <t>Bajji (Cash)</t>
-  </si>
-  <si>
-    <t>(Cash)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pending Amount </t>
-  </si>
-  <si>
-    <t>Given by MOM from HM</t>
-  </si>
-  <si>
-    <t>1.4 Sent from My Transferwise Account + 0.3 Mom</t>
-  </si>
-  <si>
-    <t>MIYAPUR FLAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (1lk Mammu)</t>
+    <t>Company ki Karchu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comp Ki + Lawyer ki (2000) + Accountant ki 3 years (100GBP monthly) + Account opening support + Initial accomodation support </t>
+  </si>
+  <si>
+    <t>COS UKVI ninchi konataniki 3 Years</t>
+  </si>
+  <si>
+    <t>(Ivi yevaru aina kattalsinde)</t>
   </si>
   <si>
     <t>Number ivvataniki</t>
   </si>
   <si>
-    <t>Company ki Karchu</t>
-  </si>
-  <si>
-    <t>COS UKVI ninchi konataniki 3 Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp Ki + Lawyer ki (2000) + Accountant ki 3 years (100GBP monthly) + Account opening support + Initial accomodation support </t>
-  </si>
-  <si>
-    <t>(Ivi yevaru aina kattalsinde)</t>
-  </si>
-  <si>
     <t>Start cheyataniki</t>
   </si>
   <si>
@@ -888,12 +930,27 @@
     <t>Visa vachina taruvatha</t>
   </si>
   <si>
+    <t>HYD_Plot (Nearly) 605 Sqyards @3000inr per sql yard</t>
+  </si>
+  <si>
+    <t>TOTAL TO SEND (Nearly) = 180000</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
     <t>Date_Sent</t>
   </si>
   <si>
+    <t>Sent_By</t>
+  </si>
+  <si>
     <t>Sent_Via</t>
   </si>
   <si>
+    <t>Sent_To</t>
+  </si>
+  <si>
     <t>Amount in INR</t>
   </si>
   <si>
@@ -903,78 +960,102 @@
     <t>History</t>
   </si>
   <si>
-    <t>Sent_By</t>
-  </si>
-  <si>
     <t>Transfer from them</t>
   </si>
   <si>
+    <t>Historical Transfer</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
     <t>Sudha ICICI Bank</t>
   </si>
   <si>
-    <t>Self</t>
+    <t>Sent to Axis / Uco bank</t>
   </si>
   <si>
     <t>Transferwise</t>
   </si>
   <si>
-    <t>S.No</t>
-  </si>
-  <si>
-    <t>HYD_Plot (Nearly) 605 Sqyards @3000inr per sql yard</t>
+    <t>Sent to Viswa Avenues Ltd</t>
   </si>
   <si>
     <t>TOTAL SENT TO INDIA</t>
   </si>
   <si>
-    <t>Sent_To</t>
-  </si>
-  <si>
-    <t>Historical Transfer</t>
-  </si>
-  <si>
-    <t>Sent to Axis / Uco bank</t>
-  </si>
-  <si>
-    <t>Sent to Viswa Avenues Ltd</t>
-  </si>
-  <si>
-    <t>TOTAL TO SEND (Nearly) = 180000</t>
-  </si>
-  <si>
-    <t>(Should be given by Bajji)</t>
-  </si>
-  <si>
-    <t>Done First one</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Not Paid</t>
+    <t>Sent Via</t>
   </si>
   <si>
     <t>Sent to</t>
   </si>
   <si>
-    <t>Sent Via</t>
-  </si>
-  <si>
     <t>23/03/2024</t>
   </si>
   <si>
+    <t>TransferWise (UK Account)</t>
+  </si>
+  <si>
+    <t>Koduru Lakshmi Tulasi</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
     <t>24/03/2024</t>
   </si>
   <si>
-    <t>TransferWise (UK Account)</t>
-  </si>
-  <si>
-    <t>Koduru Lakshmi Tulasi</t>
-  </si>
-  <si>
     <t>HDFC Bank (India Account)</t>
   </si>
   <si>
+    <t>26/03/2024</t>
+  </si>
+  <si>
+    <t>27/03/2024</t>
+  </si>
+  <si>
+    <t>Check From Pallavi (Check No: )</t>
+  </si>
+  <si>
+    <t>Gandham Pradeep HDFC</t>
+  </si>
+  <si>
+    <t>17-18/4/2024</t>
+  </si>
+  <si>
+    <t>Mamiya</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>19/4/2024</t>
+  </si>
+  <si>
+    <t>Gandham Pradeep SBI</t>
+  </si>
+  <si>
+    <t>22/4/2024</t>
+  </si>
+  <si>
+    <t>Icici Sudha</t>
+  </si>
+  <si>
+    <t>Mamiya Account (Cash withdrawl)</t>
+  </si>
+  <si>
+    <t>25/4/2024</t>
+  </si>
+  <si>
+    <t>Attatiya Account (Cash withdrawl)</t>
+  </si>
+  <si>
+    <t>27/4/2024</t>
+  </si>
+  <si>
     <t>Total Sent</t>
   </si>
   <si>
@@ -984,67 +1065,10 @@
     <t>Pending Amount</t>
   </si>
   <si>
-    <t>Mamiya</t>
-  </si>
-  <si>
-    <t>Check From Pallavi (Check No: )</t>
-  </si>
-  <si>
-    <t>Sent</t>
-  </si>
-  <si>
-    <t>Icici Sudha</t>
-  </si>
-  <si>
-    <t>26/03/2024</t>
-  </si>
-  <si>
-    <t>27/03/2024</t>
-  </si>
-  <si>
-    <t>Sudha Gold Money (to make100GMs)</t>
-  </si>
-  <si>
-    <t>Mamiya (Anjani Granites)</t>
-  </si>
-  <si>
-    <t>21-22-23/11/23</t>
-  </si>
-  <si>
-    <t>Granites work</t>
-  </si>
-  <si>
-    <t>Gold Money</t>
-  </si>
-  <si>
-    <t>Gandham Pradeep HDFC</t>
-  </si>
-  <si>
-    <t>Gandham Pradeep SBI</t>
-  </si>
-  <si>
-    <t>19/4/2024</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>17-18/4/2024</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Mamiya Account (Cash withdrawl)</t>
-  </si>
-  <si>
-    <t>22/4/2024</t>
-  </si>
-  <si>
-    <t>Attatiya Account (Cash withdrawl)</t>
-  </si>
-  <si>
-    <t>25/4/2024</t>
+    <t>Given by Mamiya</t>
+  </si>
+  <si>
+    <t>Land Cost</t>
   </si>
   <si>
     <t>Registration Cost</t>
@@ -1053,30 +1077,9 @@
     <t>Agent cost</t>
   </si>
   <si>
-    <t>Land Cost</t>
-  </si>
-  <si>
     <t>Total Plot Cost</t>
   </si>
   <si>
-    <t>27/4/2024</t>
-  </si>
-  <si>
-    <t>Given by Mamiya</t>
-  </si>
-  <si>
-    <t>Mamiya Given Back (for kkd plot 2)</t>
-  </si>
-  <si>
-    <t>Given back for Plot</t>
-  </si>
-  <si>
-    <t>Given to mammu (Transfer to Viswa avenue  17th mar 2023)</t>
-  </si>
-  <si>
-    <t>Mamiya (Granites Partnership)</t>
-  </si>
-  <si>
     <t>ICICI</t>
   </si>
   <si>
@@ -1104,13 +1107,61 @@
     <t>KBR</t>
   </si>
   <si>
+    <t>Total Self</t>
+  </si>
+  <si>
     <t>As on 01/12/2024</t>
   </si>
   <si>
     <t xml:space="preserve">Loan </t>
   </si>
   <si>
-    <t>Total Self</t>
+    <t xml:space="preserve">Radha Lakshmi A V </t>
+  </si>
+  <si>
+    <t>HDFC Bank (NRI Account)</t>
+  </si>
+  <si>
+    <t>HDFC Bank (NRO Account)</t>
+  </si>
+  <si>
+    <t>ICICI Bank</t>
+  </si>
+  <si>
+    <t>HDFC NRI Account</t>
+  </si>
+  <si>
+    <t>Ramarao Via Mamiya (Into HDFC 536)</t>
+  </si>
+  <si>
+    <t>To Ramarao</t>
+  </si>
+  <si>
+    <t>To Owner</t>
+  </si>
+  <si>
+    <t>Sq Yards</t>
+  </si>
+  <si>
+    <t>Total Land in Yards</t>
+  </si>
+  <si>
+    <t>Land cost per Yard</t>
+  </si>
+  <si>
+    <t>per Sq Yard</t>
+  </si>
+  <si>
+    <t>Total Land Cost</t>
+  </si>
+  <si>
+    <t>Sent amount</t>
+  </si>
+  <si>
+    <t>Pending amount</t>
+  </si>
+  <si>
+    <t>Inr</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1775,9 +1826,6 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1813,17 +1861,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1834,6 +1876,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1977,6 +2028,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2276,19 +2337,19 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="J2" s="57">
         <v>1000000</v>
@@ -2296,7 +2357,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="C3" s="22">
         <v>120000</v>
@@ -2305,10 +2366,10 @@
         <v>43930</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="J3" s="59">
         <v>950000</v>
@@ -2316,7 +2377,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="C4" s="11">
         <v>50000</v>
@@ -2325,10 +2386,10 @@
         <v>43959</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="J4" s="59">
         <v>200000</v>
@@ -2336,7 +2397,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="C5" s="51">
         <v>55000</v>
@@ -2345,10 +2406,10 @@
         <v>43993</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="J5" s="59">
         <v>-650000</v>
@@ -2356,7 +2417,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11">
         <v>100000</v>
@@ -2365,10 +2426,10 @@
         <v>44000</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="J6" s="59">
         <v>350000</v>
@@ -2376,7 +2437,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="C7" s="11">
         <v>50000</v>
@@ -2385,10 +2446,10 @@
         <v>44018</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="J7" s="59">
         <v>50000</v>
@@ -2396,7 +2457,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="C8" s="11">
         <v>50000</v>
@@ -2405,10 +2466,10 @@
         <v>44035</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="J8" s="59">
         <f>C17</f>
@@ -2417,7 +2478,7 @@
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="C9" s="11">
         <v>100000</v>
@@ -2426,10 +2487,10 @@
         <v>44044</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="J9" s="61">
         <v>400000</v>
@@ -2437,7 +2498,7 @@
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="C10" s="11">
         <v>50000</v>
@@ -2446,10 +2507,10 @@
         <v>44583</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="J10" s="55">
         <f>J8+J6+J5+J4+J3+J2+J7+J9</f>
@@ -2457,48 +2518,48 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="86">
+      <c r="B11" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="83">
         <v>50000</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="84">
         <v>44623</v>
       </c>
-      <c r="E11" s="86" t="s">
-        <v>207</v>
+      <c r="E11" s="83" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c r="C12" s="11">
         <v>1000000</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>314</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>311</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11">
         <v>200000</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="11" t="s">
-        <v>315</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="C14" s="11">
         <f>500000-C12</f>
@@ -2506,7 +2567,7 @@
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="11" t="s">
-        <v>333</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -2521,7 +2582,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="52" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="C17" s="53">
         <f>C16-C3-C5</f>
@@ -2529,10 +2590,10 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="90" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" s="90">
+      <c r="B19" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="87">
         <v>150000</v>
       </c>
       <c r="E19" s="1"/>
@@ -2548,67 +2609,184 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D18E863-4E00-4B7C-AA6D-69121404A546}">
-  <dimension ref="C4:E18"/>
+  <dimension ref="C3:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>336</v>
       </c>
       <c r="D4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+      <c r="J4" s="139">
+        <v>45551</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="M4" s="22">
+        <v>400000</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>337</v>
       </c>
       <c r="D5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I5" s="12">
+        <v>2</v>
+      </c>
+      <c r="J5" s="86">
+        <v>45567</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="M5" s="22">
+        <v>100000</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="O5" s="2">
+        <f>SUM(M4:M5)</f>
+        <v>500000</v>
+      </c>
+      <c r="P5" s="142" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>338</v>
       </c>
       <c r="D6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="P6" s="143"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>339</v>
       </c>
       <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="P7" s="143"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>340</v>
       </c>
       <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="J8" s="139">
+        <v>45551</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="M8" s="22">
+        <v>49000</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="P8" s="143"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>341</v>
       </c>
       <c r="D9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2</v>
+      </c>
+      <c r="J9" s="139">
+        <v>45552</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="M9" s="22">
+        <v>500000</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="P9" s="143"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>342</v>
       </c>
@@ -2618,8 +2796,27 @@
       <c r="E10" s="1">
         <v>45580</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I10" s="12">
+        <v>3</v>
+      </c>
+      <c r="J10" s="139">
+        <v>45552</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="M10" s="22">
+        <v>500000</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="P10" s="143"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>342</v>
       </c>
@@ -2629,8 +2826,27 @@
       <c r="E11" s="1">
         <v>45611</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I11" s="12">
+        <v>4</v>
+      </c>
+      <c r="J11" s="139">
+        <v>45551</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="M11" s="22">
+        <v>101000</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="P11" s="143"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>343</v>
       </c>
@@ -2640,19 +2856,58 @@
       <c r="E12" s="1">
         <v>45550</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I12" s="12">
+        <v>5</v>
+      </c>
+      <c r="J12" s="139">
+        <v>45551</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="M12" s="22">
+        <v>350000</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="P12" s="143"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>344</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <f>1.5+1</f>
+        <v>2.5</v>
       </c>
       <c r="E13" s="1">
         <v>45566</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I13" s="12">
+        <v>6</v>
+      </c>
+      <c r="J13" s="139">
+        <v>45552</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="M13" s="22">
+        <v>500000</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="P13" s="143"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>343</v>
       </c>
@@ -2662,8 +2917,27 @@
       <c r="E14" s="1">
         <v>45580</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I14" s="12">
+        <v>7</v>
+      </c>
+      <c r="J14" s="139">
+        <v>45565</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="M14" s="22">
+        <v>500000</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="P14" s="143"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>344</v>
       </c>
@@ -2673,8 +2947,27 @@
       <c r="E15" s="1">
         <v>45597</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I15" s="12">
+        <v>8</v>
+      </c>
+      <c r="J15" s="86">
+        <v>45567</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="M15" s="22">
+        <v>500000</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="P15" s="143"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>344</v>
       </c>
@@ -2684,29 +2977,135 @@
       <c r="E16" s="1">
         <v>45627</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I16" s="12">
+        <v>9</v>
+      </c>
+      <c r="J16" s="86">
+        <v>45568</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="M16" s="22">
+        <v>500000</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="O16" s="2">
+        <f>SUM(M8:M16)</f>
+        <v>3500000</v>
+      </c>
+      <c r="P16" s="142" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D17" s="2">
         <f>SUM(D4:D16)</f>
-        <v>94</v>
+        <v>66.5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D18" s="2">
-        <v>50</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="144" t="s">
+        <v>357</v>
+      </c>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="22">
+        <v>420</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="144" t="s">
+        <v>358</v>
+      </c>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="22">
+        <v>35000</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="144" t="s">
+        <v>360</v>
+      </c>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="140">
+        <f>M20*M19</f>
+        <v>14700000</v>
+      </c>
+      <c r="N21" s="141" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="144" t="s">
+        <v>361</v>
+      </c>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="16">
+        <f>O16+O5</f>
+        <v>4000000</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="144" t="s">
+        <v>362</v>
+      </c>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="50">
+        <f>M21-M22</f>
+        <v>10700000</v>
+      </c>
+      <c r="N23" s="50" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2735,51 +3134,51 @@
     </row>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q2" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="91" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="G3" s="92"/>
       <c r="H3" s="93"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
       <c r="Q4" s="10" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7">
         <v>43275</v>
       </c>
       <c r="F5" s="101" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G5" s="102"/>
       <c r="H5" s="26">
         <v>80000</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="R5" s="7">
         <v>42957</v>
@@ -2787,25 +3186,25 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C6" s="9">
         <v>500000</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="R6" s="9">
         <v>500000</v>
@@ -2813,7 +3212,7 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -2828,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="R7" s="4">
         <v>4</v>
@@ -2836,7 +3235,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4">
         <f>(C6*C7)/100</f>
@@ -2852,7 +3251,7 @@
         <v>2</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="R8" s="4">
         <f>(R6*R7)/100</f>
@@ -2861,7 +3260,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C9" s="7">
         <v>45436</v>
@@ -2876,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="R9" s="7">
         <v>43321</v>
@@ -2884,7 +3283,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8">
         <v>71</v>
@@ -2899,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="R10" s="8">
         <v>12</v>
@@ -2907,7 +3306,7 @@
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4">
         <f>C6+(C10*C8)</f>
@@ -2923,10 +3322,10 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="R11" s="4">
         <f>R6+(R10*R8)</f>
@@ -2935,13 +3334,13 @@
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C12" s="14">
         <v>98000</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="F12" s="29">
         <v>43377</v>
@@ -2953,21 +3352,21 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="C13" s="14">
         <v>75000</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="28"/>
@@ -2976,14 +3375,14 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="43" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C14" s="44">
         <f>C11-C12-C13</f>
         <v>1037000</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="G14" s="28">
         <v>80000</v>
@@ -2992,12 +3391,12 @@
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>334</v>
+        <v>64</v>
       </c>
       <c r="C15" s="13">
         <v>350000</v>
@@ -3012,15 +3411,15 @@
         <v>8</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C16" s="16">
         <f>C11-C12-C13-C15</f>
@@ -3036,10 +3435,10 @@
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="R16" s="7">
         <v>43322</v>
@@ -3056,10 +3455,10 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="R17" s="9">
         <v>640000</v>
@@ -3076,10 +3475,10 @@
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="R18" s="4">
         <v>4</v>
@@ -3096,10 +3495,10 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="R19" s="4">
         <f>(R17*R18)/100</f>
@@ -3117,10 +3516,10 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="R20" s="7">
         <v>43747</v>
@@ -3137,10 +3536,10 @@
         <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="R21" s="8">
         <v>14</v>
@@ -3157,10 +3556,10 @@
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="R22" s="4">
         <f>R17+(R21*R19)</f>
@@ -3178,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
@@ -3192,7 +3591,7 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
@@ -3206,10 +3605,10 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="P25" s="95" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Q25" s="95"/>
       <c r="R25" s="95"/>
@@ -3225,24 +3624,24 @@
         <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="46" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F27" s="29">
         <v>43805</v>
@@ -3254,13 +3653,13 @@
         <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="P27" s="98" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="R27" s="11">
         <v>180</v>
@@ -3268,7 +3667,7 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C28" s="38">
         <v>42957</v>
@@ -3281,11 +3680,11 @@
         <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="P28" s="99"/>
       <c r="Q28" s="11" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="R28" s="11">
         <v>100</v>
@@ -3293,7 +3692,7 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C29" s="40">
         <v>500000</v>
@@ -3306,11 +3705,11 @@
         <v>22</v>
       </c>
       <c r="I29" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="P29" s="100"/>
       <c r="Q29" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R29" s="11">
         <v>50</v>
@@ -3318,7 +3717,7 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="37" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C30" s="28">
         <v>4</v>
@@ -3333,13 +3732,13 @@
         <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="R30" s="11">
         <v>15</v>
@@ -3347,7 +3746,7 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C31" s="28">
         <f>(C29*C30)/100</f>
@@ -3363,13 +3762,13 @@
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="R31" s="11">
         <v>60</v>
@@ -3377,7 +3776,7 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="37" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C32" s="38">
         <v>44296</v>
@@ -3392,13 +3791,13 @@
         <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="R32" s="11">
         <v>45</v>
@@ -3406,21 +3805,21 @@
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="37" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C33" s="41">
         <v>44</v>
       </c>
       <c r="F33" s="95" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G33" s="95"/>
       <c r="H33" s="95"/>
       <c r="P33" s="11" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="R33" s="11">
         <v>100</v>
@@ -3428,24 +3827,24 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="37" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C34" s="28">
         <f>C29+(C33*C31)</f>
         <v>1380000</v>
       </c>
       <c r="F34" s="103" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G34" s="104"/>
       <c r="H34" s="4">
         <v>80000</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="R34" s="11">
         <v>15</v>
@@ -3453,28 +3852,28 @@
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C35" s="42">
         <v>200000</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="R35" s="11">
         <v>15</v>
@@ -3482,13 +3881,13 @@
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="32" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C36" s="64">
         <v>600000</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G36" s="4">
         <v>40000</v>
@@ -3497,13 +3896,13 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="R36" s="11">
         <v>25</v>
@@ -3511,14 +3910,14 @@
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="43" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C37" s="44">
         <f>C34-C35-C36</f>
         <v>580000</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="F37" s="5">
         <v>43809</v>
@@ -3530,13 +3929,13 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="R37" s="11">
         <v>70</v>
@@ -3545,19 +3944,19 @@
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F38" s="11"/>
       <c r="G38" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H38" s="4">
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="R38" s="11">
         <v>20</v>
@@ -3573,78 +3972,78 @@
         <v>4</v>
       </c>
       <c r="I39" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q39" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q39" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="R39" s="11">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="79" t="s">
-        <v>169</v>
+      <c r="B40" s="78" t="s">
+        <v>106</v>
       </c>
       <c r="C40" s="63">
         <v>200000</v>
       </c>
       <c r="D40" s="63" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="20"/>
       <c r="H40" s="11"/>
       <c r="P40" s="11" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="R40" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="79"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="63">
         <v>300000</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="20"/>
       <c r="H41" s="11"/>
       <c r="P41" s="11" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="R41" s="11">
         <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="79"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="63">
         <v>600000</v>
       </c>
       <c r="D42" s="63" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="20"/>
       <c r="H42" s="11"/>
       <c r="P42" s="11" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="R42" s="11">
         <v>30</v>
@@ -3655,10 +4054,10 @@
       <c r="G43" s="20"/>
       <c r="H43" s="11"/>
       <c r="P43" s="11" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="R43" s="11">
         <v>20</v>
@@ -3669,10 +4068,10 @@
       <c r="G44" s="20"/>
       <c r="H44" s="11"/>
       <c r="P44" s="11" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="R44" s="11">
         <v>15</v>
@@ -3680,16 +4079,16 @@
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="20"/>
       <c r="H45" s="11"/>
       <c r="P45" s="11" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R45" s="11">
         <v>20</v>
@@ -3700,28 +4099,28 @@
       <c r="G46" s="20"/>
       <c r="H46" s="11"/>
       <c r="P46" s="11" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R46" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="78"/>
+      <c r="B47" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="77"/>
       <c r="F47" s="11"/>
       <c r="G47" s="20"/>
       <c r="H47" s="11"/>
       <c r="P47" s="11" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="R47" s="11">
         <v>30</v>
@@ -3729,7 +4128,7 @@
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="23" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C48" s="24">
         <v>43565</v>
@@ -3738,10 +4137,10 @@
       <c r="G48" s="20"/>
       <c r="H48" s="11"/>
       <c r="P48" s="11" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="R48" s="11">
         <f>20+15+15</f>
@@ -3750,7 +4149,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B49" s="23" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C49" s="25">
         <v>200000</v>
@@ -3759,10 +4158,10 @@
       <c r="G49" s="20"/>
       <c r="H49" s="11"/>
       <c r="P49" s="11" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="R49" s="11">
         <f>15+15</f>
@@ -3771,7 +4170,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B50" s="23" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C50" s="26">
         <v>2</v>
@@ -3780,10 +4179,10 @@
       <c r="G50" s="20"/>
       <c r="H50" s="11"/>
       <c r="P50" s="11" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="R50" s="11">
         <v>60</v>
@@ -3791,17 +4190,17 @@
     </row>
     <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="23" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C51" s="26">
         <f>(C49*C50)/100</f>
         <v>4000</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="R51" s="11">
         <v>15</v>
@@ -3810,16 +4209,16 @@
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="23" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="C52" s="24">
         <v>43656</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="R52" s="11">
         <v>15</v>
@@ -3828,16 +4227,16 @@
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="23" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C53" s="27">
         <v>3</v>
       </c>
       <c r="P53" s="11" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="R53" s="11">
         <v>5</v>
@@ -3846,14 +4245,14 @@
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="23" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C54" s="26">
         <f>C49+(C53*C51)</f>
         <v>212000</v>
       </c>
       <c r="P54" s="11" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="Q54" s="11"/>
       <c r="R54" s="11">
@@ -3873,14 +4272,14 @@
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="P57" s="96" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="Q57" s="97"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="P58" s="11" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="Q58" s="11">
         <v>1300</v>
@@ -3889,13 +4288,13 @@
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="P59" s="11" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="Q59" s="11">
         <v>100</v>
       </c>
       <c r="R59" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -3911,7 +4310,7 @@
     <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="P62" s="2" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="R62" s="2">
         <f>Q60+R55</f>
@@ -3921,17 +4320,17 @@
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="34" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D63" s="36"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="37" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C64" s="38">
         <v>42957</v>
@@ -3941,7 +4340,7 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="37" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C65" s="40">
         <v>500000</v>
@@ -3951,7 +4350,7 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="37" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C66" s="28">
         <v>4</v>
@@ -3961,7 +4360,7 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="37" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C67" s="28">
         <f>(C65*C66)/100</f>
@@ -3972,7 +4371,7 @@
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="37" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C68" s="38">
         <v>43779</v>
@@ -3982,7 +4381,7 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="37" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C69" s="41">
         <v>27</v>
@@ -3992,7 +4391,7 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="37" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C70" s="28">
         <f>C65+(C69*C67)</f>
@@ -4003,26 +4402,26 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="32" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C71" s="42">
         <v>200000</v>
       </c>
       <c r="D71" s="39" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="43" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C72" s="44">
         <f>C70-C71</f>
         <v>840000</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4040,17 +4439,17 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="46" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D75" s="39"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="37" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C76" s="38">
         <v>42957</v>
@@ -4060,7 +4459,7 @@
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="37" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C77" s="40">
         <v>500000</v>
@@ -4070,7 +4469,7 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="37" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C78" s="28">
         <v>4</v>
@@ -4080,30 +4479,30 @@
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="37" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C79" s="28">
         <f>(C77*C78)/100</f>
         <v>20000</v>
       </c>
-      <c r="D79" s="75" t="s">
-        <v>89</v>
+      <c r="D79" s="74" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="37" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C80" s="38">
         <v>43687</v>
       </c>
-      <c r="D80" s="75"/>
+      <c r="D80" s="74"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="37" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C81" s="41">
         <v>24</v>
@@ -4113,7 +4512,7 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="37" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C82" s="28">
         <f>C77+(C81*C79)</f>
@@ -4124,7 +4523,7 @@
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="32" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C83" s="42">
         <v>100000</v>
@@ -4134,7 +4533,7 @@
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="43" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C84" s="44">
         <f>C82-C83</f>
@@ -4154,16 +4553,16 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" s="46" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D87" s="39"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" s="37" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C88" s="38">
         <v>43687</v>
@@ -4172,7 +4571,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" s="37" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C89" s="40">
         <v>880000</v>
@@ -4181,28 +4580,28 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" s="37" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C90" s="28">
         <v>6</v>
       </c>
-      <c r="D90" s="76" t="s">
-        <v>90</v>
+      <c r="D90" s="75" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" s="37" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C91" s="28">
         <f>(C89*C90)/100</f>
         <v>52800</v>
       </c>
-      <c r="D91" s="76"/>
+      <c r="D91" s="75"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="37" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C92" s="38">
         <v>43900</v>
@@ -4211,7 +4610,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" s="37" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C93" s="41">
         <v>7</v>
@@ -4220,7 +4619,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" s="37" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C94" s="28">
         <f>C89+(C93*C91)</f>
@@ -4230,7 +4629,7 @@
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="47" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C95" s="48">
         <f>C94</f>
@@ -4279,40 +4678,40 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B2" s="114"/>
       <c r="C2" s="114"/>
       <c r="G2" s="114" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="H2" s="114"/>
       <c r="I2" s="114"/>
       <c r="M2" s="108" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="N2" s="108"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="116"/>
       <c r="C3" s="12">
         <v>80000</v>
       </c>
       <c r="G3" s="115" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H3" s="116"/>
       <c r="I3" s="12">
         <v>80000</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="N3" s="11">
         <v>1000000</v>
@@ -4320,25 +4719,25 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="N4" s="11">
         <v>400000</v>
@@ -4348,28 +4747,28 @@
       <c r="A5" s="5">
         <v>44018</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="68">
         <v>80000</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E5" s="106"/>
       <c r="F5" s="110"/>
       <c r="G5" s="5">
         <v>44018</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="68">
         <v>80000</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="N5" s="11">
         <f>N3-N4</f>
@@ -4380,28 +4779,28 @@
       <c r="A6" s="21">
         <v>44044</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="68">
         <v>80000</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E6" s="106"/>
       <c r="F6" s="110"/>
       <c r="G6" s="21">
         <v>44044</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="68">
         <v>80000</v>
       </c>
       <c r="I6" s="4">
         <v>2</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="N6" s="11">
         <v>2</v>
@@ -4411,28 +4810,28 @@
       <c r="A7" s="21">
         <v>44081</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="68">
         <v>80000</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="110"/>
       <c r="G7" s="21">
         <v>44081</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="68">
         <v>80000</v>
       </c>
       <c r="I7" s="4">
         <v>3</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="N7" s="21">
         <v>44188</v>
@@ -4442,28 +4841,28 @@
       <c r="A8" s="21">
         <v>44111</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="68">
         <v>80000</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="D8" s="109" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="E8" s="106"/>
       <c r="F8" s="110"/>
       <c r="G8" s="21">
         <v>44111</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="68">
         <v>80000</v>
       </c>
       <c r="I8" s="4">
         <v>4</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="N8" s="11">
         <v>19</v>
@@ -4473,28 +4872,28 @@
       <c r="A9" s="21">
         <v>44142</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="68">
         <v>80000</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
       </c>
       <c r="D9" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E9" s="106"/>
       <c r="F9" s="110"/>
       <c r="G9" s="21">
         <v>44142</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="68">
         <v>80000</v>
       </c>
       <c r="I9" s="4">
         <v>5</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="N9" s="50">
         <f>N5*N6/100*N8</f>
@@ -4505,28 +4904,28 @@
       <c r="A10" s="21">
         <v>44182</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="68">
         <v>80000</v>
       </c>
       <c r="C10" s="4">
         <v>6</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E10" s="106"/>
       <c r="F10" s="110"/>
       <c r="G10" s="21">
         <v>44182</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="68">
         <v>80000</v>
       </c>
       <c r="I10" s="4">
         <v>6</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="N10" s="13">
         <f>N3*0.65/100*N8</f>
@@ -4537,21 +4936,21 @@
       <c r="A11" s="21">
         <v>44209</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="68">
         <v>80000</v>
       </c>
       <c r="C11" s="4">
         <v>7</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E11" s="106"/>
       <c r="F11" s="110"/>
       <c r="G11" s="21">
         <v>44209</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="68">
         <v>80000</v>
       </c>
       <c r="I11" s="4">
@@ -4564,21 +4963,21 @@
       <c r="A12" s="21">
         <v>44242</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="68">
         <v>80000</v>
       </c>
       <c r="C12" s="4">
         <v>8</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="110"/>
       <c r="G12" s="21">
         <v>44242</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="68">
         <v>80000</v>
       </c>
       <c r="I12" s="4">
@@ -4591,21 +4990,21 @@
       <c r="A13" s="21">
         <v>44248</v>
       </c>
-      <c r="B13" s="69">
+      <c r="B13" s="68">
         <v>80000</v>
       </c>
       <c r="C13" s="4">
         <v>9</v>
       </c>
       <c r="D13" s="111" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E13" s="112"/>
       <c r="F13" s="113"/>
       <c r="G13" s="21">
         <v>44248</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="68">
         <v>80000</v>
       </c>
       <c r="I13" s="4">
@@ -4618,28 +5017,28 @@
       <c r="A14" s="21">
         <v>44291</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="68">
         <v>80000</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="110"/>
       <c r="G14" s="21">
         <v>44291</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="68">
         <v>80000</v>
       </c>
       <c r="I14" s="4">
         <v>10</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N14" s="16">
         <f>N9-N10</f>
@@ -4650,21 +5049,21 @@
       <c r="A15" s="21">
         <v>44323</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="68">
         <v>80000</v>
       </c>
       <c r="C15" s="4">
         <v>11</v>
       </c>
       <c r="D15" s="109" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="110"/>
       <c r="G15" s="21">
         <v>44323</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="68">
         <v>80000</v>
       </c>
       <c r="I15" s="4">
@@ -4675,21 +5074,21 @@
       <c r="A16" s="21">
         <v>44355</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16" s="68">
         <v>80000</v>
       </c>
       <c r="C16" s="4">
         <v>12</v>
       </c>
       <c r="D16" s="109" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="110"/>
       <c r="G16" s="21">
         <v>44355</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="68">
         <v>80000</v>
       </c>
       <c r="I16" s="4">
@@ -4700,21 +5099,21 @@
       <c r="A17" s="21">
         <v>44384</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="68">
         <v>80000</v>
       </c>
       <c r="C17" s="4">
         <v>13</v>
       </c>
       <c r="D17" s="109" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E17" s="106"/>
       <c r="F17" s="110"/>
       <c r="G17" s="21">
         <v>44384</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="68">
         <v>80000</v>
       </c>
       <c r="I17" s="4">
@@ -4725,21 +5124,21 @@
       <c r="A18" s="21">
         <v>44414</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="68">
         <v>80000</v>
       </c>
       <c r="C18" s="4">
         <v>14</v>
       </c>
       <c r="D18" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E18" s="106"/>
       <c r="F18" s="110"/>
       <c r="G18" s="21">
         <v>44414</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="68">
         <v>80000</v>
       </c>
       <c r="I18" s="4">
@@ -4750,21 +5149,21 @@
       <c r="A19" s="21">
         <v>44449</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B19" s="68">
         <v>80000</v>
       </c>
       <c r="C19" s="4">
         <v>15</v>
       </c>
       <c r="D19" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E19" s="106"/>
       <c r="F19" s="110"/>
       <c r="G19" s="21">
         <v>44449</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="68">
         <v>80000</v>
       </c>
       <c r="I19" s="4">
@@ -4773,7 +5172,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="69">
+      <c r="B20" s="68">
         <f>251000/2</f>
         <v>125500</v>
       </c>
@@ -4781,12 +5180,12 @@
         <v>16</v>
       </c>
       <c r="D20" s="109" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="110"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="69">
+      <c r="H20" s="68">
         <f>251000/2</f>
         <v>125500</v>
       </c>
@@ -4798,7 +5197,7 @@
       <c r="A21" s="7">
         <v>44513</v>
       </c>
-      <c r="B21" s="69">
+      <c r="B21" s="68">
         <f>B20-80000-80000</f>
         <v>-34500</v>
       </c>
@@ -4806,14 +5205,14 @@
         <v>16</v>
       </c>
       <c r="D21" s="109" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E21" s="106"/>
       <c r="F21" s="110"/>
       <c r="G21" s="7">
         <v>44513</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="68">
         <f>H20-80000-80000</f>
         <v>-34500</v>
       </c>
@@ -4825,21 +5224,21 @@
       <c r="A22" s="7">
         <v>44540</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22" s="68">
         <v>80000</v>
       </c>
       <c r="C22" s="4">
         <v>17</v>
       </c>
       <c r="D22" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E22" s="106"/>
       <c r="F22" s="110"/>
       <c r="G22" s="7">
         <v>44540</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="68">
         <v>80000</v>
       </c>
       <c r="I22" s="4">
@@ -4850,21 +5249,21 @@
       <c r="A23" s="7">
         <v>44574</v>
       </c>
-      <c r="B23" s="69">
+      <c r="B23" s="68">
         <v>80000</v>
       </c>
       <c r="C23" s="4">
         <v>18</v>
       </c>
       <c r="D23" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E23" s="106"/>
       <c r="F23" s="110"/>
       <c r="G23" s="7">
         <v>44574</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="68">
         <v>80000</v>
       </c>
       <c r="I23" s="4">
@@ -4875,21 +5274,21 @@
       <c r="A24" s="7">
         <v>44606</v>
       </c>
-      <c r="B24" s="69">
+      <c r="B24" s="68">
         <v>80000</v>
       </c>
       <c r="C24" s="4">
         <v>19</v>
       </c>
       <c r="D24" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E24" s="106"/>
       <c r="F24" s="110"/>
       <c r="G24" s="7">
         <v>44606</v>
       </c>
-      <c r="H24" s="69">
+      <c r="H24" s="68">
         <v>80000</v>
       </c>
       <c r="I24" s="4">
@@ -4900,21 +5299,21 @@
       <c r="A25" s="7">
         <v>44634</v>
       </c>
-      <c r="B25" s="69">
+      <c r="B25" s="68">
         <v>80000</v>
       </c>
       <c r="C25" s="4">
         <v>20</v>
       </c>
       <c r="D25" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E25" s="106"/>
       <c r="F25" s="110"/>
       <c r="G25" s="7">
         <v>44634</v>
       </c>
-      <c r="H25" s="69">
+      <c r="H25" s="68">
         <v>80000</v>
       </c>
       <c r="I25" s="4">
@@ -4925,49 +5324,49 @@
       <c r="A26" s="7">
         <v>44665</v>
       </c>
-      <c r="B26" s="69">
+      <c r="B26" s="68">
         <v>80000</v>
       </c>
       <c r="C26" s="4">
         <v>21</v>
       </c>
       <c r="D26" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E26" s="106"/>
       <c r="F26" s="110"/>
       <c r="G26" s="7">
         <v>44665</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="68">
         <v>80000</v>
       </c>
       <c r="I26" s="4">
         <v>21</v>
       </c>
       <c r="M26" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44693</v>
       </c>
-      <c r="B27" s="69">
+      <c r="B27" s="68">
         <v>80000</v>
       </c>
       <c r="C27" s="4">
         <v>22</v>
       </c>
       <c r="D27" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E27" s="106"/>
       <c r="F27" s="110"/>
       <c r="G27" s="7">
         <v>44693</v>
       </c>
-      <c r="H27" s="69">
+      <c r="H27" s="68">
         <v>80000</v>
       </c>
       <c r="I27" s="4">
@@ -4978,21 +5377,21 @@
       <c r="A28" s="7">
         <v>44726</v>
       </c>
-      <c r="B28" s="69">
+      <c r="B28" s="68">
         <v>80000</v>
       </c>
       <c r="C28" s="4">
         <v>23</v>
       </c>
       <c r="D28" s="109" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E28" s="106"/>
       <c r="F28" s="110"/>
       <c r="G28" s="7">
         <v>44726</v>
       </c>
-      <c r="H28" s="69">
+      <c r="H28" s="68">
         <v>80000</v>
       </c>
       <c r="I28" s="4">
@@ -5003,21 +5402,21 @@
       <c r="A29" s="7">
         <v>44761</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="68">
         <v>80000</v>
       </c>
       <c r="C29" s="4">
         <v>24</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="E29" s="106"/>
       <c r="F29" s="110"/>
       <c r="G29" s="7">
         <v>44761</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="68">
         <v>80000</v>
       </c>
       <c r="I29" s="4">
@@ -5025,27 +5424,27 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70">
+      <c r="A30" s="69">
         <v>44786</v>
       </c>
-      <c r="B30" s="71">
+      <c r="B30" s="70">
         <v>80000</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="71">
         <v>25</v>
       </c>
       <c r="D30" s="109" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="E30" s="106"/>
       <c r="F30" s="110"/>
-      <c r="G30" s="70">
+      <c r="G30" s="69">
         <v>44786</v>
       </c>
-      <c r="H30" s="71">
+      <c r="H30" s="70">
         <v>80000</v>
       </c>
-      <c r="I30" s="72">
+      <c r="I30" s="71">
         <v>25</v>
       </c>
     </row>
@@ -5061,32 +5460,32 @@
       <c r="I31" s="119"/>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="83">
+      <c r="A32" s="81">
         <v>44818</v>
       </c>
-      <c r="B32" s="73">
+      <c r="B32" s="72">
         <v>100000</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="72">
         <v>1</v>
       </c>
       <c r="D32" s="112" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="E32" s="112"/>
       <c r="F32" s="112"/>
-      <c r="G32" s="83">
+      <c r="G32" s="81">
         <v>44818</v>
       </c>
-      <c r="H32" s="73">
+      <c r="H32" s="72">
         <v>100000</v>
       </c>
-      <c r="I32" s="73">
+      <c r="I32" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="83">
+      <c r="A33" s="81">
         <v>44841</v>
       </c>
       <c r="B33" s="4">
@@ -5096,11 +5495,11 @@
         <v>2</v>
       </c>
       <c r="D33" s="112" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="E33" s="112"/>
       <c r="F33" s="112"/>
-      <c r="G33" s="83">
+      <c r="G33" s="81">
         <v>44841</v>
       </c>
       <c r="H33" s="4">
@@ -5110,13 +5509,13 @@
         <v>2</v>
       </c>
       <c r="L33" s="107" t="s">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="M33" s="107"/>
       <c r="N33" s="107"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="83">
+      <c r="A34" s="81">
         <v>44861</v>
       </c>
       <c r="B34" s="4">
@@ -5126,11 +5525,11 @@
         <v>3</v>
       </c>
       <c r="D34" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E34" s="106"/>
       <c r="F34" s="106"/>
-      <c r="G34" s="83">
+      <c r="G34" s="81">
         <v>44861</v>
       </c>
       <c r="H34" s="4">
@@ -5140,13 +5539,13 @@
         <v>3</v>
       </c>
       <c r="L34" s="107" t="s">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c r="M34" s="107"/>
       <c r="N34" s="107"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="83">
+      <c r="A35" s="81">
         <v>44893</v>
       </c>
       <c r="B35" s="4">
@@ -5156,11 +5555,11 @@
         <v>4</v>
       </c>
       <c r="D35" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E35" s="106"/>
       <c r="F35" s="106"/>
-      <c r="G35" s="83">
+      <c r="G35" s="81">
         <v>44893</v>
       </c>
       <c r="H35" s="4">
@@ -5170,13 +5569,13 @@
         <v>4</v>
       </c>
       <c r="L35" s="107" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="M35" s="107"/>
       <c r="N35" s="107"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="83">
+      <c r="A36" s="81">
         <v>44929</v>
       </c>
       <c r="B36" s="4">
@@ -5186,11 +5585,11 @@
         <v>5</v>
       </c>
       <c r="D36" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E36" s="106"/>
       <c r="F36" s="106"/>
-      <c r="G36" s="83">
+      <c r="G36" s="81">
         <v>44929</v>
       </c>
       <c r="H36" s="4">
@@ -5199,7 +5598,7 @@
       <c r="I36" s="4">
         <v>5</v>
       </c>
-      <c r="L36" s="84">
+      <c r="L36" s="82">
         <v>44929</v>
       </c>
       <c r="M36" s="12">
@@ -5209,11 +5608,11 @@
         <v>1</v>
       </c>
       <c r="O36" s="105" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="83">
+      <c r="A37" s="81">
         <v>44967</v>
       </c>
       <c r="B37" s="4">
@@ -5223,11 +5622,11 @@
         <v>6</v>
       </c>
       <c r="D37" s="106" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="E37" s="106"/>
       <c r="F37" s="106"/>
-      <c r="G37" s="83">
+      <c r="G37" s="81">
         <v>44967</v>
       </c>
       <c r="H37" s="4">
@@ -5236,7 +5635,7 @@
       <c r="I37" s="4">
         <v>6</v>
       </c>
-      <c r="L37" s="84">
+      <c r="L37" s="82">
         <v>44967</v>
       </c>
       <c r="M37" s="12">
@@ -5248,7 +5647,7 @@
       <c r="O37" s="105"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="83">
+      <c r="A38" s="81">
         <v>44995</v>
       </c>
       <c r="B38" s="4">
@@ -5258,11 +5657,11 @@
         <v>7</v>
       </c>
       <c r="D38" s="106" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="E38" s="106"/>
       <c r="F38" s="106"/>
-      <c r="G38" s="83">
+      <c r="G38" s="81">
         <v>44995</v>
       </c>
       <c r="H38" s="4">
@@ -5271,7 +5670,7 @@
       <c r="I38" s="4">
         <v>7</v>
       </c>
-      <c r="L38" s="84">
+      <c r="L38" s="82">
         <v>44995</v>
       </c>
       <c r="M38" s="12">
@@ -5283,7 +5682,7 @@
       <c r="O38" s="105"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="83">
+      <c r="A39" s="81">
         <v>45021</v>
       </c>
       <c r="B39" s="4">
@@ -5293,11 +5692,11 @@
         <v>8</v>
       </c>
       <c r="D39" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E39" s="106"/>
       <c r="F39" s="106"/>
-      <c r="G39" s="83">
+      <c r="G39" s="81">
         <v>45021</v>
       </c>
       <c r="H39" s="4">
@@ -5306,7 +5705,7 @@
       <c r="I39" s="4">
         <v>8</v>
       </c>
-      <c r="L39" s="84">
+      <c r="L39" s="82">
         <v>45021</v>
       </c>
       <c r="M39" s="12">
@@ -5318,7 +5717,7 @@
       <c r="O39" s="105"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="83">
+      <c r="A40" s="81">
         <v>45048</v>
       </c>
       <c r="B40" s="4">
@@ -5328,11 +5727,11 @@
         <v>9</v>
       </c>
       <c r="D40" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E40" s="106"/>
       <c r="F40" s="106"/>
-      <c r="G40" s="83">
+      <c r="G40" s="81">
         <v>45048</v>
       </c>
       <c r="H40" s="4">
@@ -5341,7 +5740,7 @@
       <c r="I40" s="4">
         <v>9</v>
       </c>
-      <c r="L40" s="84">
+      <c r="L40" s="82">
         <v>45048</v>
       </c>
       <c r="M40" s="12">
@@ -5353,7 +5752,7 @@
       <c r="O40" s="105"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="83">
+      <c r="A41" s="81">
         <v>45078</v>
       </c>
       <c r="B41" s="4">
@@ -5363,11 +5762,11 @@
         <v>10</v>
       </c>
       <c r="D41" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E41" s="106"/>
       <c r="F41" s="106"/>
-      <c r="G41" s="83">
+      <c r="G41" s="81">
         <v>45078</v>
       </c>
       <c r="H41" s="4">
@@ -5376,7 +5775,7 @@
       <c r="I41" s="4">
         <v>10</v>
       </c>
-      <c r="L41" s="84">
+      <c r="L41" s="82">
         <v>45078</v>
       </c>
       <c r="M41" s="12">
@@ -5388,7 +5787,7 @@
       <c r="O41" s="105"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="83">
+      <c r="A42" s="81">
         <v>45113</v>
       </c>
       <c r="B42" s="4">
@@ -5398,11 +5797,11 @@
         <v>11</v>
       </c>
       <c r="D42" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E42" s="106"/>
       <c r="F42" s="106"/>
-      <c r="G42" s="83">
+      <c r="G42" s="81">
         <v>45113</v>
       </c>
       <c r="H42" s="4">
@@ -5411,7 +5810,7 @@
       <c r="I42" s="4">
         <v>11</v>
       </c>
-      <c r="L42" s="84">
+      <c r="L42" s="82">
         <v>45113</v>
       </c>
       <c r="M42" s="12">
@@ -5423,7 +5822,7 @@
       <c r="O42" s="105"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="83">
+      <c r="A43" s="81">
         <v>45143</v>
       </c>
       <c r="B43" s="4">
@@ -5433,11 +5832,11 @@
         <v>12</v>
       </c>
       <c r="D43" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E43" s="106"/>
       <c r="F43" s="106"/>
-      <c r="G43" s="83">
+      <c r="G43" s="81">
         <v>45143</v>
       </c>
       <c r="H43" s="4">
@@ -5446,7 +5845,7 @@
       <c r="I43" s="4">
         <v>12</v>
       </c>
-      <c r="L43" s="84">
+      <c r="L43" s="82">
         <v>45143</v>
       </c>
       <c r="M43" s="12">
@@ -5458,7 +5857,7 @@
       <c r="O43" s="105"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="83">
+      <c r="A44" s="81">
         <v>45181</v>
       </c>
       <c r="B44" s="4">
@@ -5468,11 +5867,11 @@
         <v>13</v>
       </c>
       <c r="D44" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E44" s="106"/>
       <c r="F44" s="106"/>
-      <c r="G44" s="83">
+      <c r="G44" s="81">
         <v>45181</v>
       </c>
       <c r="H44" s="4">
@@ -5481,7 +5880,7 @@
       <c r="I44" s="4">
         <v>13</v>
       </c>
-      <c r="L44" s="84">
+      <c r="L44" s="82">
         <v>45181</v>
       </c>
       <c r="M44" s="12">
@@ -5493,7 +5892,7 @@
       <c r="O44" s="105"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="83">
+      <c r="A45" s="81">
         <v>45204</v>
       </c>
       <c r="B45" s="4">
@@ -5503,11 +5902,11 @@
         <v>14</v>
       </c>
       <c r="D45" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E45" s="106"/>
       <c r="F45" s="106"/>
-      <c r="G45" s="83">
+      <c r="G45" s="81">
         <v>45204</v>
       </c>
       <c r="H45" s="4">
@@ -5516,7 +5915,7 @@
       <c r="I45" s="4">
         <v>14</v>
       </c>
-      <c r="L45" s="84">
+      <c r="L45" s="82">
         <v>45204</v>
       </c>
       <c r="M45" s="12">
@@ -5528,7 +5927,7 @@
       <c r="O45" s="105"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="83">
+      <c r="A46" s="81">
         <v>45239</v>
       </c>
       <c r="B46" s="4">
@@ -5538,11 +5937,11 @@
         <v>15</v>
       </c>
       <c r="D46" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E46" s="106"/>
       <c r="F46" s="106"/>
-      <c r="G46" s="83">
+      <c r="G46" s="81">
         <v>45239</v>
       </c>
       <c r="H46" s="4">
@@ -5551,7 +5950,7 @@
       <c r="I46" s="4">
         <v>15</v>
       </c>
-      <c r="L46" s="84">
+      <c r="L46" s="82">
         <v>45239</v>
       </c>
       <c r="M46" s="12">
@@ -5563,7 +5962,7 @@
       <c r="O46" s="105"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="83">
+      <c r="A47" s="81">
         <v>45259</v>
       </c>
       <c r="B47" s="4">
@@ -5573,11 +5972,11 @@
         <v>16</v>
       </c>
       <c r="D47" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E47" s="106"/>
       <c r="F47" s="106"/>
-      <c r="G47" s="83">
+      <c r="G47" s="81">
         <v>45259</v>
       </c>
       <c r="H47" s="4">
@@ -5586,7 +5985,7 @@
       <c r="I47" s="4">
         <v>16</v>
       </c>
-      <c r="L47" s="84">
+      <c r="L47" s="82">
         <v>45259</v>
       </c>
       <c r="M47" s="12">
@@ -5598,7 +5997,7 @@
       <c r="O47" s="105"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="83">
+      <c r="A48" s="81">
         <v>45287</v>
       </c>
       <c r="B48" s="4">
@@ -5608,11 +6007,11 @@
         <v>17</v>
       </c>
       <c r="D48" s="106" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E48" s="106"/>
       <c r="F48" s="106"/>
-      <c r="G48" s="83">
+      <c r="G48" s="81">
         <v>45287</v>
       </c>
       <c r="H48" s="4">
@@ -5621,7 +6020,7 @@
       <c r="I48" s="4">
         <v>17</v>
       </c>
-      <c r="L48" s="83">
+      <c r="L48" s="81">
         <v>45287</v>
       </c>
       <c r="M48" s="4">
@@ -5639,7 +6038,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="109" t="s">
-        <v>294</v>
+        <v>175</v>
       </c>
       <c r="E49" s="106"/>
       <c r="F49" s="110"/>
@@ -5660,7 +6059,7 @@
         <v>19</v>
       </c>
       <c r="D50" s="109" t="s">
-        <v>294</v>
+        <v>175</v>
       </c>
       <c r="E50" s="106"/>
       <c r="F50" s="110"/>
@@ -5676,17 +6075,17 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
         <v>20</v>
       </c>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
       <c r="G51" s="4" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="4">
@@ -5762,14 +6161,14 @@
       <c r="O55" s="11"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="83">
+      <c r="A56" s="81">
         <v>45550</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="4">
         <v>25</v>
       </c>
-      <c r="G56" s="83">
+      <c r="G56" s="81">
         <v>45550</v>
       </c>
       <c r="H56" s="11"/>
@@ -5860,7 +6259,7 @@
   <sheetData>
     <row r="1" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="91" t="s">
-        <v>262</v>
+        <v>177</v>
       </c>
       <c r="D1" s="92"/>
       <c r="E1" s="92"/>
@@ -5871,12 +6270,12 @@
     </row>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="F3">
         <v>3800000</v>
@@ -5884,7 +6283,7 @@
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="F4">
         <v>400000</v>
@@ -5897,7 +6296,7 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="F5">
         <v>200000</v>
@@ -5911,7 +6310,7 @@
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="F6">
         <v>75000</v>
@@ -5923,14 +6322,14 @@
         <v>763</v>
       </c>
       <c r="J6" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="74">
+        <v>183</v>
+      </c>
+      <c r="F7" s="73">
         <v>200000</v>
       </c>
       <c r="G7" s="1">
@@ -5942,9 +6341,9 @@
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="74">
+        <v>184</v>
+      </c>
+      <c r="F8" s="73">
         <v>200000</v>
       </c>
       <c r="G8" s="1">
@@ -5956,9 +6355,9 @@
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>242</v>
-      </c>
-      <c r="F9" s="74">
+        <v>183</v>
+      </c>
+      <c r="F9" s="73">
         <v>200000</v>
       </c>
       <c r="G9" s="1">
@@ -5970,9 +6369,9 @@
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="74">
+        <v>184</v>
+      </c>
+      <c r="F10" s="73">
         <v>200000</v>
       </c>
       <c r="G10" s="1">
@@ -5984,9 +6383,9 @@
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F11" s="74">
+        <v>185</v>
+      </c>
+      <c r="F11" s="73">
         <v>200000</v>
       </c>
       <c r="G11" s="1">
@@ -5998,9 +6397,9 @@
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="74">
+        <v>186</v>
+      </c>
+      <c r="F12" s="73">
         <v>200000</v>
       </c>
       <c r="G12" s="1">
@@ -6012,9 +6411,9 @@
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" s="74">
+        <v>187</v>
+      </c>
+      <c r="F13" s="73">
         <v>200000</v>
       </c>
       <c r="G13" s="1">
@@ -6026,9 +6425,9 @@
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14" s="74">
+        <v>188</v>
+      </c>
+      <c r="F14" s="73">
         <v>400000</v>
       </c>
       <c r="G14" s="1">
@@ -6040,9 +6439,9 @@
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>246</v>
-      </c>
-      <c r="F15" s="74">
+        <v>187</v>
+      </c>
+      <c r="F15" s="73">
         <v>200000</v>
       </c>
       <c r="G15" s="1">
@@ -6054,9 +6453,9 @@
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="74">
+        <v>188</v>
+      </c>
+      <c r="F16" s="73">
         <v>200000</v>
       </c>
       <c r="G16" s="1">
@@ -6068,9 +6467,9 @@
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" s="74">
+        <v>187</v>
+      </c>
+      <c r="F17" s="73">
         <v>200000</v>
       </c>
       <c r="G17" s="1">
@@ -6082,9 +6481,9 @@
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>242</v>
-      </c>
-      <c r="F18" s="74">
+        <v>183</v>
+      </c>
+      <c r="F18" s="73">
         <v>200000</v>
       </c>
       <c r="G18" s="1">
@@ -6096,114 +6495,114 @@
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>246</v>
-      </c>
-      <c r="F19" s="74">
+        <v>187</v>
+      </c>
+      <c r="F19" s="73">
         <v>200000</v>
       </c>
       <c r="G19" s="1">
         <v>44940</v>
       </c>
       <c r="J19" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="74">
+        <v>187</v>
+      </c>
+      <c r="F20" s="73">
         <v>100000</v>
       </c>
       <c r="G20" s="1">
         <v>44946</v>
       </c>
       <c r="J20" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>246</v>
-      </c>
-      <c r="F21" s="74">
+        <v>187</v>
+      </c>
+      <c r="F21" s="73">
         <v>100000</v>
       </c>
       <c r="G21" s="1">
         <v>44948</v>
       </c>
       <c r="J21" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>246</v>
-      </c>
-      <c r="F22" s="74">
+        <v>187</v>
+      </c>
+      <c r="F22" s="73">
         <v>100000</v>
       </c>
       <c r="G22" s="1">
         <v>44945</v>
       </c>
       <c r="J22" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23" s="74">
+        <v>187</v>
+      </c>
+      <c r="F23" s="73">
         <v>100000</v>
       </c>
       <c r="G23" s="1">
         <v>44945</v>
       </c>
       <c r="J23" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>257</v>
-      </c>
-      <c r="F24" s="74">
+        <v>192</v>
+      </c>
+      <c r="F24" s="73">
         <v>100000</v>
       </c>
       <c r="G24" s="1">
         <v>44949</v>
       </c>
       <c r="J24" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>246</v>
-      </c>
-      <c r="F25" s="74">
+        <v>187</v>
+      </c>
+      <c r="F25" s="73">
         <v>200000</v>
       </c>
       <c r="G25" s="1">
         <v>44952</v>
       </c>
       <c r="J25" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F26" s="74">
+        <v>187</v>
+      </c>
+      <c r="F26" s="73">
         <v>100000</v>
       </c>
       <c r="G26" s="1">
         <v>44964</v>
       </c>
       <c r="J26" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
@@ -6214,7 +6613,7 @@
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="F29">
         <f>SUM(F7:F26)</f>
@@ -6227,14 +6626,14 @@
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="F30">
         <f>F3-F29</f>
         <v>200000</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6261,7 +6660,7 @@
   <sheetData>
     <row r="2" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="F2">
         <v>2400000</v>
@@ -6269,7 +6668,7 @@
     </row>
     <row r="3" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="F3">
         <v>500000</v>
@@ -6277,7 +6676,7 @@
     </row>
     <row r="4" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="F4">
         <v>400000</v>
@@ -6285,35 +6684,35 @@
     </row>
     <row r="5" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="F5">
         <v>75000</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="F6">
         <f>(2400000*0.7)/100</f>
         <v>16800</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -6327,7 +6726,7 @@
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="F10">
         <v>600000</v>
@@ -6357,27 +6756,27 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="C3" s="11">
         <v>850000</v>
@@ -6392,12 +6791,12 @@
         <v>44365</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="C4" s="11">
         <v>200000</v>
@@ -6410,12 +6809,12 @@
         <v>44365</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C5" s="11">
         <v>150000</v>
@@ -6423,7 +6822,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="C6" s="11">
         <v>250000</v>
@@ -6431,7 +6830,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C7" s="13">
         <f>SUM(C3:C6)</f>
@@ -6440,18 +6839,18 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="C11" s="11">
         <v>900000</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="C12" s="11">
         <v>100000</v>
@@ -6488,28 +6887,28 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11" cm="1">
@@ -6530,7 +6929,7 @@
         <v>44476</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="D3" s="11">
         <v>2000</v>
@@ -6539,13 +6938,13 @@
         <v>50.32</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="I3" s="21">
         <v>44502</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11">
@@ -6566,7 +6965,7 @@
         <v>44477</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="D4" s="11">
         <v>1495</v>
@@ -6575,13 +6974,13 @@
         <v>50.32</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="I4" s="21">
         <v>44534</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11">
@@ -6602,7 +7001,7 @@
         <v>44504</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="D5" s="11">
         <v>2085</v>
@@ -6611,13 +7010,13 @@
         <v>50.32</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="I5" s="21">
         <v>44567</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11">
@@ -6638,13 +7037,13 @@
         <v>44506</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="D6" s="11">
         <v>1630</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11">
@@ -6664,7 +7063,7 @@
         <v>44507</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="D7" s="11">
         <v>1632</v>
@@ -6676,7 +7075,7 @@
         <v>943.92000000000758</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -6691,7 +7090,7 @@
         <v>44529</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="D8" s="11">
         <v>3132</v>
@@ -6713,13 +7112,13 @@
         <v>44543</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="D9" s="11">
         <v>5712</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11">
@@ -6740,13 +7139,13 @@
         <v>44578</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="D10" s="11">
         <v>2958</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -6767,13 +7166,13 @@
         <v>44610</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="D11" s="11">
         <v>2958</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -6788,7 +7187,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="B12" s="1"/>
       <c r="D12">
@@ -6808,43 +7207,43 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -6852,10 +7251,10 @@
         <v>44470</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D17" s="11">
         <v>80</v>
@@ -6896,10 +7295,10 @@
         <v>44470</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D18" s="11">
         <v>80</v>
@@ -6940,10 +7339,10 @@
         <v>44470</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D19" s="11">
         <v>173.33</v>
@@ -6988,10 +7387,10 @@
         <v>44501</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D20" s="11">
         <v>80</v>
@@ -7032,10 +7431,10 @@
         <v>44501</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D21" s="11">
         <v>80</v>
@@ -7076,10 +7475,10 @@
         <v>44501</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D22" s="11">
         <v>173.33</v>
@@ -7124,10 +7523,10 @@
         <v>44531</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D23" s="11">
         <v>80</v>
@@ -7168,10 +7567,10 @@
         <v>44531</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D24" s="11">
         <v>80</v>
@@ -7212,10 +7611,10 @@
         <v>44531</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D25" s="11">
         <v>173.33</v>
@@ -7260,10 +7659,10 @@
         <v>44562</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D26" s="11">
         <v>80</v>
@@ -7304,10 +7703,10 @@
         <v>44562</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D27" s="11">
         <v>80</v>
@@ -7348,10 +7747,10 @@
         <v>44562</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D28" s="11">
         <v>173.33</v>
@@ -7396,10 +7795,10 @@
         <v>44593</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D29" s="11">
         <v>80</v>
@@ -7440,10 +7839,10 @@
         <v>44593</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D30" s="11">
         <v>80</v>
@@ -7484,10 +7883,10 @@
         <v>44593</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D31" s="11">
         <v>173.33</v>
@@ -7529,7 +7928,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="L33">
         <f>N31+N28+N25+N22+N19</f>
@@ -7542,7 +7941,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="L34">
         <f>G31+G28+G25+G22+G19</f>
@@ -7561,7 +7960,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="L38">
         <f>D13-L36-L34-G3-G4-G5</f>
@@ -7575,7 +7974,7 @@
     </row>
     <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="120" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="B40" s="121"/>
       <c r="C40" s="121"/>
@@ -7594,16 +7993,16 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -7614,7 +8013,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="D43" s="11">
         <v>2754</v>
@@ -7628,43 +8027,43 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7672,10 +8071,10 @@
         <v>44621</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D50" s="11">
         <v>173.33</v>
@@ -7716,10 +8115,10 @@
         <v>44621</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D51" s="11">
         <v>80</v>
@@ -7755,7 +8154,7 @@
         <v>712.8</v>
       </c>
       <c r="N51" s="123" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -7763,10 +8162,10 @@
         <v>44621</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D52" s="11">
         <v>80</v>
@@ -7808,10 +8207,10 @@
         <v>44593</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="D53" s="11">
         <v>80</v>
@@ -7852,10 +8251,10 @@
         <v>44621</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="D54" s="11">
         <v>80</v>
@@ -7896,10 +8295,10 @@
         <v>44652</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D55" s="11">
         <v>173.33</v>
@@ -7940,10 +8339,10 @@
         <v>44652</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D56" s="11">
         <v>80</v>
@@ -7979,7 +8378,7 @@
         <v>712.8</v>
       </c>
       <c r="N56" s="126" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -7987,10 +8386,10 @@
         <v>44652</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D57" s="11">
         <v>80</v>
@@ -8032,10 +8431,10 @@
         <v>44652</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="D58" s="11">
         <v>80</v>
@@ -8075,10 +8474,10 @@
         <v>44682</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D59" s="11">
         <v>173.33</v>
@@ -8119,10 +8518,10 @@
         <v>44682</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D60" s="11">
         <v>80</v>
@@ -8163,10 +8562,10 @@
         <v>44682</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D61" s="11">
         <v>80</v>
@@ -8207,10 +8606,10 @@
         <v>44682</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="D62" s="11">
         <v>80</v>
@@ -8250,10 +8649,10 @@
         <v>44713</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D63" s="11">
         <v>173.33</v>
@@ -8287,17 +8686,17 @@
       <c r="M63" s="11">
         <v>1773.48</v>
       </c>
-      <c r="N63" s="68"/>
+      <c r="N63" s="89"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="65">
         <v>44713</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D64" s="11">
         <v>80</v>
@@ -8331,17 +8730,17 @@
       <c r="M64" s="67">
         <v>760</v>
       </c>
-      <c r="N64" s="68"/>
+      <c r="N64" s="89"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="65">
         <v>44713</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D65" s="11">
         <v>80</v>
@@ -8375,17 +8774,17 @@
       <c r="M65" s="67">
         <v>760</v>
       </c>
-      <c r="N65" s="68"/>
+      <c r="N65" s="89"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="65">
         <v>44713</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="D66" s="11">
         <v>80</v>
@@ -8417,17 +8816,17 @@
       <c r="M66" s="11">
         <v>780</v>
       </c>
-      <c r="N66" s="68"/>
+      <c r="N66" s="89"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="65">
         <v>44743</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D67" s="11">
         <v>173.33</v>
@@ -8461,17 +8860,17 @@
       <c r="M67" s="11">
         <v>1803.29</v>
       </c>
-      <c r="N67" s="68"/>
+      <c r="N67" s="89"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="65">
         <v>44743</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D68" s="11">
         <v>80</v>
@@ -8505,17 +8904,17 @@
       <c r="M68" s="11">
         <v>760</v>
       </c>
-      <c r="N68" s="68"/>
+      <c r="N68" s="89"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="65">
         <v>44743</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="D69" s="11">
         <v>80</v>
@@ -8547,7 +8946,7 @@
       <c r="M69" s="11">
         <v>780</v>
       </c>
-      <c r="N69" s="68"/>
+      <c r="N69" s="89"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="65"/>
@@ -8563,7 +8962,7 @@
       <c r="K70" s="11"/>
       <c r="L70" s="21"/>
       <c r="M70" s="11"/>
-      <c r="N70" s="68"/>
+      <c r="N70" s="89"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
@@ -8612,21 +9011,21 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D75" s="2" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="C76">
         <f>D13+D43</f>
@@ -8635,7 +9034,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="C77">
         <f>M19+M22+M25+M28+M31+M50+M55+M59</f>
@@ -8660,7 +9059,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="C78">
         <f>K18+K21+K24+K27+K30</f>
@@ -8672,7 +9071,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="C79">
         <f>J17+J20+J23+J26+J29</f>
@@ -8684,29 +9083,29 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C85">
         <v>10000</v>
       </c>
       <c r="D85" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C86">
         <v>3000</v>
       </c>
       <c r="D86" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C87">
         <f>C86+C85</f>
@@ -8715,7 +9114,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C89">
         <f>C86</f>
@@ -8724,7 +9123,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C90">
         <v>1000</v>
@@ -8732,7 +9131,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C91">
         <v>2000</v>
@@ -8740,7 +9139,7 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C92">
         <f>C87-C89-C90-C91</f>
@@ -8768,7 +9167,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="80"/>
+    <col min="1" max="1" width="9.140625" style="79"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -8779,7 +9178,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="130" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B1" s="130"/>
       <c r="C1" s="130"/>
@@ -8790,7 +9189,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="129" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B2" s="129"/>
       <c r="C2" s="129"/>
@@ -8799,27 +9198,27 @@
       <c r="F2" s="129"/>
       <c r="G2" s="129"/>
     </row>
-    <row r="3" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8827,16 +9226,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F4" s="11">
         <v>350000</v>
@@ -8853,13 +9252,13 @@
         <v>45089</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F5" s="11">
         <v>300000</v>
@@ -8876,13 +9275,13 @@
         <v>45091</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F6" s="11">
         <v>350000</v>
@@ -8899,13 +9298,13 @@
         <v>45093</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F7" s="11">
         <v>300000</v>
@@ -8922,13 +9321,13 @@
         <v>45106</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F8" s="11">
         <v>300000</v>
@@ -8945,13 +9344,13 @@
         <v>45113</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F9" s="11">
         <v>200000</v>
@@ -8962,17 +9361,17 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="131" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
       <c r="D10" s="133"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="81">
+      <c r="E10" s="90"/>
+      <c r="F10" s="80">
         <f>SUM(F4:F9)</f>
         <v>1800000</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="80">
         <f>SUM(G4:G9)</f>
         <v>17536</v>
       </c>
@@ -8993,12 +9392,12 @@
   <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
@@ -9008,19 +9407,19 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="F2" s="11"/>
     </row>
@@ -9028,365 +9427,365 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
-        <v>297</v>
+      <c r="B3" s="85" t="s">
+        <v>306</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E3" s="22">
         <v>100000</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="88" t="s">
-        <v>298</v>
+      <c r="B4" s="85" t="s">
+        <v>310</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E4" s="22">
         <v>50000</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="88" t="s">
-        <v>298</v>
+      <c r="B5" s="85" t="s">
+        <v>310</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E5" s="22">
         <v>350000</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="88" t="s">
-        <v>309</v>
+      <c r="B6" s="85" t="s">
+        <v>312</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E6" s="22">
         <v>500000</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="88" t="s">
-        <v>310</v>
+      <c r="B7" s="85" t="s">
+        <v>313</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E7" s="22">
         <v>500000</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="88" t="s">
-        <v>310</v>
+      <c r="B8" s="85" t="s">
+        <v>313</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E8" s="22">
         <v>500000</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="89">
+      <c r="B9" s="86">
         <v>45326</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E9" s="22">
         <v>500000</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="89">
+      <c r="B10" s="86">
         <v>45326</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E10" s="22">
         <v>500000</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="89">
+      <c r="B11" s="86">
         <v>45416</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E11" s="22">
         <v>300000</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="86">
         <v>45630</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E12" s="22">
         <v>400000</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>320</v>
+      <c r="B13" s="86" t="s">
+        <v>316</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E13" s="22">
         <v>400000</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>318</v>
+      <c r="B14" s="86" t="s">
+        <v>320</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E14" s="22">
         <v>100000</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>318</v>
+      <c r="B15" s="86" t="s">
+        <v>320</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E15" s="22">
         <v>300000</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="86" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>308</v>
-      </c>
       <c r="D16" s="22" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E16" s="22">
         <v>500000</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>323</v>
+      <c r="B17" s="86" t="s">
+        <v>322</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E17" s="22">
         <v>100000</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="86" t="s">
         <v>325</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E18" s="22">
         <v>500000</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="86" t="s">
         <v>325</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E19" s="22">
         <v>400000</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>330</v>
+      <c r="B20" s="86" t="s">
+        <v>327</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E20" s="22">
         <v>600000</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="B21" s="114">
         <f>SUM(E3:E20)</f>
@@ -9399,7 +9798,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="B22" s="137">
         <f>255*25900</f>
@@ -9412,7 +9811,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B23" s="138">
         <f>B22-B21</f>
@@ -9427,7 +9826,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B26" s="107">
         <f>255*25900</f>
@@ -9439,7 +9838,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B27" s="107">
         <v>200000</v>
@@ -9450,7 +9849,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B28" s="107">
         <v>60000</v>
@@ -9461,7 +9860,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B29" s="134">
         <f>SUM(B26:E28)</f>
